--- a/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TRILE.xlsx
+++ b/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TRILE.xlsx
@@ -1,83 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14080" tabRatio="818" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="34560" windowHeight="17020" tabRatio="818" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
     <sheet name="Update History" sheetId="12" r:id="rId2"/>
     <sheet name="Table List" sheetId="4" r:id="rId3"/>
-    <sheet name="user" sheetId="5" r:id="rId4"/>
-    <sheet name="edition" sheetId="36" state="hidden" r:id="rId5"/>
-    <sheet name="x_edition_version" sheetId="37" state="hidden" r:id="rId6"/>
-    <sheet name="ranking(deleted)" sheetId="20" state="hidden" r:id="rId7"/>
+    <sheet name="_users" sheetId="5" r:id="rId4"/>
+    <sheet name="_posts" sheetId="40" r:id="rId5"/>
+    <sheet name="_comments" sheetId="39" r:id="rId6"/>
+    <sheet name="_tokens" sheetId="38" r:id="rId7"/>
+    <sheet name="edition" sheetId="36" state="hidden" r:id="rId8"/>
+    <sheet name="x_edition_version" sheetId="37" state="hidden" r:id="rId9"/>
+    <sheet name="ranking(deleted)" sheetId="20" state="hidden" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
+    <definedName name="⑫画面" localSheetId="5">#REF!</definedName>
     <definedName name="⑫画面" localSheetId="4">#REF!</definedName>
     <definedName name="⑫画面" localSheetId="6">#REF!</definedName>
-    <definedName name="⑫画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑫画面" localSheetId="7">#REF!</definedName>
+    <definedName name="⑫画面" localSheetId="9">#REF!</definedName>
+    <definedName name="⑫画面" localSheetId="8">#REF!</definedName>
     <definedName name="⑫画面">#REF!</definedName>
+    <definedName name="②画面" localSheetId="5">#REF!</definedName>
     <definedName name="②画面" localSheetId="4">#REF!</definedName>
     <definedName name="②画面" localSheetId="6">#REF!</definedName>
-    <definedName name="②画面" localSheetId="5">#REF!</definedName>
+    <definedName name="②画面" localSheetId="7">#REF!</definedName>
+    <definedName name="②画面" localSheetId="9">#REF!</definedName>
+    <definedName name="②画面" localSheetId="8">#REF!</definedName>
     <definedName name="②画面">#REF!</definedName>
+    <definedName name="③画面" localSheetId="5">#REF!</definedName>
     <definedName name="③画面" localSheetId="4">#REF!</definedName>
     <definedName name="③画面" localSheetId="6">#REF!</definedName>
-    <definedName name="③画面" localSheetId="5">#REF!</definedName>
+    <definedName name="③画面" localSheetId="7">#REF!</definedName>
+    <definedName name="③画面" localSheetId="9">#REF!</definedName>
+    <definedName name="③画面" localSheetId="8">#REF!</definedName>
     <definedName name="③画面">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="5">#REF!</definedName>
     <definedName name="⑤画面" localSheetId="4">#REF!</definedName>
     <definedName name="⑤画面" localSheetId="6">#REF!</definedName>
-    <definedName name="⑤画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="7">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="9">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="8">#REF!</definedName>
     <definedName name="⑤画面">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="5">#REF!</definedName>
     <definedName name="⑧画面" localSheetId="4">#REF!</definedName>
     <definedName name="⑧画面" localSheetId="6">#REF!</definedName>
-    <definedName name="⑧画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="7">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="9">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="8">#REF!</definedName>
     <definedName name="⑧画面">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="5">#REF!</definedName>
     <definedName name="⑨画面" localSheetId="4">#REF!</definedName>
     <definedName name="⑨画面" localSheetId="6">#REF!</definedName>
-    <definedName name="⑨画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="7">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="9">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="8">#REF!</definedName>
     <definedName name="⑨画面">#REF!</definedName>
+    <definedName name="AAAAAA" localSheetId="5">#REF!</definedName>
     <definedName name="AAAAAA" localSheetId="4">#REF!</definedName>
-    <definedName name="AAAAAA" localSheetId="5">#REF!</definedName>
+    <definedName name="AAAAAA" localSheetId="6">#REF!</definedName>
+    <definedName name="AAAAAA" localSheetId="7">#REF!</definedName>
+    <definedName name="AAAAAA" localSheetId="8">#REF!</definedName>
     <definedName name="AAAAAA">#REF!</definedName>
+    <definedName name="as" localSheetId="5">#REF!</definedName>
     <definedName name="as" localSheetId="4">#REF!</definedName>
-    <definedName name="as" localSheetId="5">#REF!</definedName>
+    <definedName name="as" localSheetId="6">#REF!</definedName>
+    <definedName name="as" localSheetId="7">#REF!</definedName>
+    <definedName name="as" localSheetId="8">#REF!</definedName>
     <definedName name="as">#REF!</definedName>
+    <definedName name="ｄｄｄｄ" localSheetId="5">#REF!</definedName>
     <definedName name="ｄｄｄｄ" localSheetId="4">#REF!</definedName>
     <definedName name="ｄｄｄｄ" localSheetId="6">#REF!</definedName>
-    <definedName name="ｄｄｄｄ" localSheetId="5">#REF!</definedName>
+    <definedName name="ｄｄｄｄ" localSheetId="7">#REF!</definedName>
+    <definedName name="ｄｄｄｄ" localSheetId="9">#REF!</definedName>
+    <definedName name="ｄｄｄｄ" localSheetId="8">#REF!</definedName>
     <definedName name="ｄｄｄｄ">#REF!</definedName>
+    <definedName name="ｄｄｄｄｄ" localSheetId="5">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ" localSheetId="4">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ" localSheetId="6">#REF!</definedName>
-    <definedName name="ｄｄｄｄｄ" localSheetId="5">#REF!</definedName>
+    <definedName name="ｄｄｄｄｄ" localSheetId="7">#REF!</definedName>
+    <definedName name="ｄｄｄｄｄ" localSheetId="9">#REF!</definedName>
+    <definedName name="ｄｄｄｄｄ" localSheetId="8">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ">#REF!</definedName>
     <definedName name="MySQL_DataType">[1]データタイプ!$B$2:$B$36</definedName>
     <definedName name="Oracle_DataType">[1]データタイプ!$A$2:$A$24</definedName>
+    <definedName name="あ" localSheetId="5">#REF!</definedName>
     <definedName name="あ" localSheetId="4">#REF!</definedName>
     <definedName name="あ" localSheetId="6">#REF!</definedName>
-    <definedName name="あ" localSheetId="5">#REF!</definedName>
+    <definedName name="あ" localSheetId="7">#REF!</definedName>
+    <definedName name="あ" localSheetId="9">#REF!</definedName>
+    <definedName name="あ" localSheetId="8">#REF!</definedName>
     <definedName name="あ">#REF!</definedName>
+    <definedName name="ステータス" localSheetId="5">#REF!</definedName>
     <definedName name="ステータス" localSheetId="4">#REF!</definedName>
     <definedName name="ステータス" localSheetId="6">#REF!</definedName>
-    <definedName name="ステータス" localSheetId="5">#REF!</definedName>
+    <definedName name="ステータス" localSheetId="7">#REF!</definedName>
+    <definedName name="ステータス" localSheetId="9">#REF!</definedName>
+    <definedName name="ステータス" localSheetId="8">#REF!</definedName>
     <definedName name="ステータス">#REF!</definedName>
+    <definedName name="画面一覧" localSheetId="5">#REF!</definedName>
     <definedName name="画面一覧" localSheetId="4">#REF!</definedName>
     <definedName name="画面一覧" localSheetId="6">#REF!</definedName>
-    <definedName name="画面一覧" localSheetId="5">#REF!</definedName>
+    <definedName name="画面一覧" localSheetId="7">#REF!</definedName>
+    <definedName name="画面一覧" localSheetId="9">#REF!</definedName>
+    <definedName name="画面一覧" localSheetId="8">#REF!</definedName>
     <definedName name="画面一覧">#REF!</definedName>
+    <definedName name="項番17" localSheetId="5">#REF!</definedName>
     <definedName name="項番17" localSheetId="4">#REF!</definedName>
     <definedName name="項番17" localSheetId="6">#REF!</definedName>
-    <definedName name="項番17" localSheetId="5">#REF!</definedName>
+    <definedName name="項番17" localSheetId="7">#REF!</definedName>
+    <definedName name="項番17" localSheetId="9">#REF!</definedName>
+    <definedName name="項番17" localSheetId="8">#REF!</definedName>
     <definedName name="項番17">#REF!</definedName>
+    <definedName name="項番3" localSheetId="5">#REF!</definedName>
     <definedName name="項番3" localSheetId="4">#REF!</definedName>
     <definedName name="項番3" localSheetId="6">#REF!</definedName>
-    <definedName name="項番3" localSheetId="5">#REF!</definedName>
+    <definedName name="項番3" localSheetId="7">#REF!</definedName>
+    <definedName name="項番3" localSheetId="9">#REF!</definedName>
+    <definedName name="項番3" localSheetId="8">#REF!</definedName>
     <definedName name="項番3">#REF!</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -90,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="174">
   <si>
     <t>No</t>
   </si>
@@ -257,9 +305,6 @@
     <t>VARCHAR(255)</t>
   </si>
   <si>
-    <t>VARCHAR(40)</t>
-  </si>
-  <si>
     <t>ranking</t>
   </si>
   <si>
@@ -389,16 +434,10 @@
     <t>version_id, rank_number, rank_type</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>create_dt</t>
   </si>
   <si>
     <t>update_dt</t>
-  </si>
-  <si>
-    <t>Current date time as default value.</t>
   </si>
   <si>
     <t>Init version</t>
@@ -414,12 +453,6 @@
     <t>User info</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>10/10/2014</t>
-  </si>
-  <si>
     <t>User Info</t>
   </si>
   <si>
@@ -457,12 +490,6 @@
   </si>
   <si>
     <t>last_login_dt</t>
-  </si>
-  <si>
-    <t>0: Inactive, 1: Active</t>
-  </si>
-  <si>
-    <t>TINYINT(1)</t>
   </si>
   <si>
     <t>Mini Blog Database Design (MySQL)</t>
@@ -491,6 +518,156 @@
   <si>
     <t>…</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TriLe</t>
+  </si>
+  <si>
+    <t>_user</t>
+  </si>
+  <si>
+    <t>Avatarlink</t>
+  </si>
+  <si>
+    <t>avatar_link</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>VARCHAR(64)</t>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>Hashmap</t>
+  </si>
+  <si>
+    <t>hash_map</t>
+  </si>
+  <si>
+    <t>Use SHA_256 to hash password</t>
+  </si>
+  <si>
+    <t>Joindate</t>
+  </si>
+  <si>
+    <t>join_date</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>_users</t>
+  </si>
+  <si>
+    <t>fk_posts_users</t>
+  </si>
+  <si>
+    <t>_posts</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>fk_tokens_users</t>
+  </si>
+  <si>
+    <t>_tokens</t>
+  </si>
+  <si>
+    <t>_comments</t>
+  </si>
+  <si>
+    <t>fk_comments_users</t>
+  </si>
+  <si>
+    <t>Post info</t>
+  </si>
+  <si>
+    <t>Post Info</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>Createtime</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>Edittime</t>
+  </si>
+  <si>
+    <t>edit_time</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>VARCHAR(1024)</t>
+  </si>
+  <si>
+    <t>fk_comments_posts</t>
+  </si>
+  <si>
+    <t>partner_id</t>
+  </si>
+  <si>
+    <t>Comments Info</t>
+  </si>
+  <si>
+    <t>PartnerID</t>
+  </si>
+  <si>
+    <t>ID of Post</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>Token Info</t>
+  </si>
+  <si>
+    <t>Expiredtime</t>
+  </si>
+  <si>
+    <t>expired_time</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Comments info</t>
+  </si>
+  <si>
+    <t>Token info</t>
   </si>
 </sst>
 </file>
@@ -498,14 +675,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -514,14 +691,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -535,7 +712,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -550,7 +727,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -611,7 +788,7 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -703,7 +880,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -1541,8 +1718,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="443">
+  <cellStyleXfs count="491">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2869,8 +3090,152 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2893,7 +3258,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3132,7 +3497,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3140,7 +3505,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="39" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="40" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3219,9 +3584,6 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3238,38 +3600,41 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3277,12 +3642,6 @@
     <xf numFmtId="49" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3319,25 +3678,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3352,14 +3711,74 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="443">
+  <cellStyles count="491">
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -3795,6 +4214,54 @@
     <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="441" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="443" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="445" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="447" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="449" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="451" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="453" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="455" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="457" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="459" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="461" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="463" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="465" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="467" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="469" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="471" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="473" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="475" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="477" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="479" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="481" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="483" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="485" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="487" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="489" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ハイパーリンク 2" xfId="4"/>
@@ -4375,8 +4842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O13" sqref="O13:AK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -5153,7 +5620,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="138" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="L15" s="138"/>
       <c r="M15" s="138"/>
@@ -5832,7 +6299,7 @@
       <c r="AL27" s="4"/>
       <c r="AM27" s="7"/>
       <c r="AN27" s="139">
-        <v>41922</v>
+        <v>42026</v>
       </c>
       <c r="AO27" s="139"/>
       <c r="AP27" s="139"/>
@@ -6297,12 +6764,658 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="18" customWidth="1"/>
+    <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="12" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="13">
+      <c r="B2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="162" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="167"/>
+      <c r="E2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="175" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="176"/>
+    </row>
+    <row r="3" spans="1:14" ht="13">
+      <c r="B3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="166"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="164" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="165"/>
+    </row>
+    <row r="4" spans="1:14" ht="13">
+      <c r="B4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="166" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="168"/>
+      <c r="E4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="166"/>
+      <c r="G4" s="165"/>
+    </row>
+    <row r="5" spans="1:14" ht="13">
+      <c r="B5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="166" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="168"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="165"/>
+    </row>
+    <row r="6" spans="1:14" ht="13">
+      <c r="B6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="166" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="168"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="165"/>
+    </row>
+    <row r="7" spans="1:14" ht="13">
+      <c r="B7" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="152"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="156"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
+    </row>
+    <row r="10" spans="1:14" ht="12" thickBot="1">
+      <c r="B10" s="157"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="159"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+    </row>
+    <row r="12" spans="1:14" ht="12" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="14">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="74" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="14">
+        <f t="shared" ref="A16:A18" si="0">A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+    </row>
+    <row r="18" spans="1:14" ht="12" thickBot="1">
+      <c r="A18" s="56">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+    </row>
+    <row r="20" spans="1:14" ht="12" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="149"/>
+      <c r="E21" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+    </row>
+    <row r="22" spans="1:14" ht="13">
+      <c r="A22" s="14">
+        <v>1</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="160" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="161"/>
+      <c r="E22" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+    </row>
+    <row r="23" spans="1:14" ht="13" customHeight="1">
+      <c r="A23" s="57">
+        <v>2</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="146" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="147"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="53"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+    </row>
+    <row r="24" spans="1:14" ht="14" thickBot="1">
+      <c r="A24" s="16">
+        <v>3</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="170"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+    </row>
+    <row r="26" spans="1:14" ht="12" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+    </row>
+    <row r="27" spans="1:14" ht="14" thickBot="1">
+      <c r="A27" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="142"/>
+      <c r="E27" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="143"/>
+      <c r="G27" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+    </row>
+    <row r="29" spans="1:14" ht="12" thickBot="1">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+    </row>
+    <row r="30" spans="1:14" ht="14" thickBot="1">
+      <c r="A30" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="142"/>
+      <c r="E30" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="143"/>
+      <c r="G30" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+    </row>
+    <row r="31" spans="1:14" ht="13">
+      <c r="A31" s="57">
+        <v>1</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="160" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="161"/>
+      <c r="E31" s="146" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="147"/>
+      <c r="G31" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+    </row>
+    <row r="32" spans="1:14" ht="14" thickBot="1">
+      <c r="A32" s="56">
+        <v>2</v>
+      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="173" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="174"/>
+      <c r="E32" s="171" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="172"/>
+      <c r="G32" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+    </row>
+    <row r="33" spans="8:13">
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+    </row>
+    <row r="34" spans="8:13">
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+    </row>
+    <row r="35" spans="8:13">
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+    </row>
+    <row r="36" spans="8:13">
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+    </row>
+    <row r="37" spans="8:13">
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F34"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -6338,14 +7451,16 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="93">
-        <v>41922</v>
+        <v>42026</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="94"/>
+        <v>102</v>
+      </c>
+      <c r="D3" s="94" t="s">
+        <v>124</v>
+      </c>
       <c r="E3" s="95" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F3" s="96"/>
     </row>
@@ -6585,8 +7700,8 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C8" sqref="B4:C8"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -6614,40 +7729,52 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="14">
       <c r="A3" s="121">
         <v>1</v>
       </c>
       <c r="B3" s="122" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="130" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>103</v>
+      </c>
+      <c r="C3" s="136" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14">
       <c r="A4" s="59">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="124"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="194" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14">
       <c r="A5" s="59">
         <f t="shared" ref="A5:A28" si="0">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="124"/>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="B5" s="123" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="194" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14">
       <c r="A6" s="59">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="124"/>
+      <c r="B6" s="123" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="194" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="59">
@@ -6831,7 +7958,10 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="user!A1" display="user"/>
+    <hyperlink ref="C3" location="user!A1" display="_user"/>
+    <hyperlink ref="C4" location="_posts" display="_posts"/>
+    <hyperlink ref="C5" location="_comments" display="_comments"/>
+    <hyperlink ref="C6" location="_tokens" display="_tokens"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
@@ -6852,10 +7982,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S36"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -6885,108 +8015,110 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="141" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="142"/>
+      <c r="C2" s="162" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="167"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="141"/>
-      <c r="G2" s="145"/>
+      <c r="F2" s="162" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="163"/>
     </row>
     <row r="3" spans="1:19" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="168"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="146" t="s">
-        <v>108</v>
-      </c>
-      <c r="G3" s="147"/>
+      <c r="F3" s="164">
+        <v>42026</v>
+      </c>
+      <c r="G3" s="165"/>
     </row>
     <row r="4" spans="1:19" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="143" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="144"/>
+      <c r="C4" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="168"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="147"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="165"/>
     </row>
     <row r="5" spans="1:19" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="143" t="s">
-        <v>109</v>
-      </c>
-      <c r="D5" s="144"/>
+      <c r="C5" s="166" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="168"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="147"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="165"/>
     </row>
     <row r="6" spans="1:19" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="143" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="144"/>
+      <c r="C6" s="166" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="168"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="147"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="165"/>
     </row>
     <row r="7" spans="1:19" ht="13">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="154"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="152"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="158"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
     </row>
     <row r="10" spans="1:19" ht="12" thickBot="1">
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="159"/>
     </row>
     <row r="12" spans="1:19" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7012,46 +8144,46 @@
         <v>31</v>
       </c>
       <c r="I13" s="128" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="J13" s="128" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K13" s="128" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L13" s="128"/>
       <c r="M13" s="128" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="N13" s="128" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="O13" s="128" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="P13" s="128" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="Q13" s="128" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R13" s="128" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S13" s="128" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="17">
+    <row r="14" spans="1:19" ht="14">
       <c r="A14" s="69">
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>53</v>
@@ -7068,19 +8200,19 @@
         <v>1</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="N14" s="136" t="s">
-        <v>130</v>
+        <v>121</v>
+      </c>
+      <c r="N14" s="135" t="s">
+        <v>123</v>
       </c>
       <c r="O14" s="13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="P14" s="127">
         <v>41922.465277777781</v>
@@ -7095,45 +8227,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="17">
+    <row r="15" spans="1:19" ht="14">
       <c r="A15" s="59">
         <f>A14+1</f>
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="107" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H15" s="87"/>
       <c r="I15" s="13">
         <v>2</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="N15" s="136" t="s">
-        <v>129</v>
+        <v>121</v>
+      </c>
+      <c r="N15" s="135" t="s">
+        <v>122</v>
       </c>
       <c r="O15" s="13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="P15" s="127">
         <v>41922.46875</v>
@@ -7150,13 +8282,21 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="59">
-        <f t="shared" ref="A16:A24" si="0">A15+1</f>
+        <f t="shared" ref="A16:A23" si="0">A15+1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
+      <c r="B16" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>0</v>
+      </c>
       <c r="F16" s="67"/>
       <c r="G16" s="117"/>
       <c r="H16" s="87"/>
@@ -7166,46 +8306,84 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
+      <c r="B17" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F17" s="67"/>
-      <c r="G17" s="117"/>
+      <c r="G17" s="107" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="59">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="66"/>
+      <c r="B18" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="129" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F18" s="67"/>
-      <c r="G18" s="106"/>
+      <c r="G18" s="107" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="59">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="66"/>
+      <c r="B19" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="129" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F19" s="67"/>
-      <c r="G19" s="106"/>
+      <c r="G19" s="106" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="59">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="66"/>
+      <c r="B20" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="129" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F20" s="67"/>
       <c r="G20" s="106"/>
     </row>
@@ -7226,204 +8404,225 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B22" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="65" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="66" t="s">
-        <v>3</v>
-      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
       <c r="F22" s="67"/>
-      <c r="G22" s="106" t="s">
-        <v>102</v>
-      </c>
+      <c r="G22" s="106"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="59">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="63" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="65" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="66" t="s">
-        <v>3</v>
-      </c>
+      <c r="B23" s="63"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="67"/>
       <c r="G23" s="106"/>
     </row>
-    <row r="24" spans="1:7" ht="12" thickBot="1">
-      <c r="A24" s="70">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B24" s="131" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="132" t="s">
-        <v>123</v>
-      </c>
-      <c r="E24" s="133" t="s">
+    <row r="25" spans="1:7" ht="12" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="149"/>
+      <c r="E26" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="13">
+      <c r="A27" s="14">
+        <v>1</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="188" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="189"/>
+      <c r="E27" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="135" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="134" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="12" thickBot="1">
-      <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="29" t="s">
+      <c r="F27" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="57">
+        <v>2</v>
+      </c>
+      <c r="B28" s="51"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:7" ht="12" thickBot="1">
+      <c r="A29" s="56">
+        <v>3</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="31" spans="1:7" ht="12" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="13">
+      <c r="A32" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="148" t="s">
+      <c r="B32" s="177" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="178" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="149"/>
-      <c r="E27" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="13">
-      <c r="A28" s="14">
+      <c r="D32" s="179"/>
+      <c r="E32" s="178" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="180"/>
+      <c r="G32" s="181" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12" thickBot="1">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="14" thickBot="1">
+      <c r="A35" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="142"/>
+      <c r="E35" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="143"/>
+      <c r="G35" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12" thickBot="1">
+      <c r="A36" s="183">
         <v>1</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="162" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="163"/>
-      <c r="E28" s="46" t="s">
+      <c r="B36" s="184" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="186" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="187"/>
+      <c r="E36" s="186" t="s">
+        <v>143</v>
+      </c>
+      <c r="F36" s="187"/>
+      <c r="G36" s="184" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12" thickBot="1">
+      <c r="A37" s="183">
+        <v>2</v>
+      </c>
+      <c r="B37" s="184" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="186" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="187"/>
+      <c r="E37" s="186" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="187"/>
+      <c r="G37" s="184" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="183">
         <v>3</v>
       </c>
-      <c r="F28" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" s="20"/>
-    </row>
-    <row r="29" spans="1:7" ht="13" customHeight="1">
-      <c r="A29" s="57">
-        <v>2</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="167"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53"/>
-    </row>
-    <row r="30" spans="1:7" ht="13" customHeight="1" thickBot="1">
-      <c r="A30" s="56">
-        <v>3</v>
-      </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="32" spans="1:7" ht="12" thickBot="1">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="14" thickBot="1">
-      <c r="A33" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="150" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="151"/>
-      <c r="E33" s="150" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="164"/>
-      <c r="G33" s="38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="12" thickBot="1">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="14" thickBot="1">
-      <c r="A36" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="150" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="151"/>
-      <c r="E36" s="150" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="164"/>
-      <c r="G36" s="38" t="s">
-        <v>39</v>
+      <c r="B38" s="184" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="186" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="187"/>
+      <c r="E38" s="186" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="187"/>
+      <c r="G38" s="184" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="26">
+    <mergeCell ref="E36:F36"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7441,6 +8640,1891 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S37"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="18" customWidth="1"/>
+    <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.83203125" style="13"/>
+    <col min="11" max="11" width="17.6640625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="13" customWidth="1"/>
+    <col min="14" max="15" width="19.33203125" style="13" customWidth="1"/>
+    <col min="16" max="17" width="17" style="13" customWidth="1"/>
+    <col min="18" max="18" width="15.5" style="13" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="12" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="13">
+      <c r="B2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="162" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="167"/>
+      <c r="E2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="162" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="163"/>
+    </row>
+    <row r="3" spans="1:19" ht="13">
+      <c r="B3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="166"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="164">
+        <v>42026</v>
+      </c>
+      <c r="G3" s="165"/>
+    </row>
+    <row r="4" spans="1:19" ht="13">
+      <c r="B4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="168"/>
+      <c r="E4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="166"/>
+      <c r="G4" s="165"/>
+    </row>
+    <row r="5" spans="1:19" ht="13">
+      <c r="B5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="166" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="168"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="165"/>
+    </row>
+    <row r="6" spans="1:19" ht="13">
+      <c r="B6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="166" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="168"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="165"/>
+    </row>
+    <row r="7" spans="1:19" ht="13">
+      <c r="B7" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="152"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="156"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
+    </row>
+    <row r="10" spans="1:19" ht="12" thickBot="1">
+      <c r="B10" s="157"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="159"/>
+    </row>
+    <row r="12" spans="1:19" ht="12" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="128" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="S13" s="128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="14">
+      <c r="A14" s="69">
+        <v>1</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="87"/>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="135" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="127">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="Q14" s="127">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="R14" s="127">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="S14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="14">
+      <c r="A15" s="59">
+        <v>2</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="13">
+        <v>2</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="127">
+        <v>41922.46875</v>
+      </c>
+      <c r="Q15" s="127">
+        <v>41922.46875</v>
+      </c>
+      <c r="R15" s="127">
+        <v>41922.46875</v>
+      </c>
+      <c r="S15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="14">
+      <c r="A16" s="69">
+        <v>3</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="87"/>
+      <c r="N16" s="135"/>
+      <c r="P16" s="127"/>
+      <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="59">
+        <v>4</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="87"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="69">
+        <v>5</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="67"/>
+      <c r="G18" s="107"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="59">
+        <v>6</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="67"/>
+      <c r="G19" s="107"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="69">
+        <v>7</v>
+      </c>
+      <c r="B20" s="63"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="106"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="59">
+        <v>8</v>
+      </c>
+      <c r="B21" s="63"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="106"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="69">
+        <v>9</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="106"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="59">
+        <v>10</v>
+      </c>
+      <c r="B23" s="63"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="106"/>
+    </row>
+    <row r="25" spans="1:8" ht="12" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="149"/>
+      <c r="E26" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="13">
+      <c r="A27" s="14">
+        <v>1</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="188" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="189"/>
+      <c r="E27" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="57">
+        <v>2</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="190" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" s="191"/>
+      <c r="E28" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:8" ht="12" thickBot="1">
+      <c r="A29" s="56">
+        <v>3</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="31" spans="1:8" ht="12" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="14" thickBot="1">
+      <c r="A32" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="142"/>
+      <c r="E32" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="143"/>
+      <c r="G32" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="183">
+        <v>1</v>
+      </c>
+      <c r="B33" s="184" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="186" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="187"/>
+      <c r="E33" s="186" t="s">
+        <v>143</v>
+      </c>
+      <c r="F33" s="187"/>
+      <c r="G33" s="184" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="12" thickBot="1">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="14" thickBot="1">
+      <c r="A36" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="142"/>
+      <c r="E36" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="143"/>
+      <c r="G36" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="183">
+        <v>1</v>
+      </c>
+      <c r="B37" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="186" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" s="187"/>
+      <c r="E37" s="186" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="187"/>
+      <c r="G37" s="184" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="18" customWidth="1"/>
+    <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.83203125" style="13"/>
+    <col min="11" max="11" width="17.6640625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="13" customWidth="1"/>
+    <col min="14" max="15" width="19.33203125" style="13" customWidth="1"/>
+    <col min="16" max="17" width="17" style="13" customWidth="1"/>
+    <col min="18" max="18" width="15.5" style="13" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="12" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="13">
+      <c r="B2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="162" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="167"/>
+      <c r="E2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="162" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="163"/>
+    </row>
+    <row r="3" spans="1:19" ht="13">
+      <c r="B3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="166"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="164">
+        <v>42026</v>
+      </c>
+      <c r="G3" s="165"/>
+    </row>
+    <row r="4" spans="1:19" ht="13">
+      <c r="B4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="168"/>
+      <c r="E4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="166"/>
+      <c r="G4" s="165"/>
+    </row>
+    <row r="5" spans="1:19" ht="13">
+      <c r="B5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="166" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="168"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="165"/>
+    </row>
+    <row r="6" spans="1:19" ht="13">
+      <c r="B6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="166" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="168"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="165"/>
+    </row>
+    <row r="7" spans="1:19" ht="13">
+      <c r="B7" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="152"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="156"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
+    </row>
+    <row r="10" spans="1:19" ht="12" thickBot="1">
+      <c r="B10" s="157"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="159"/>
+    </row>
+    <row r="12" spans="1:19" ht="12" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="128" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="S13" s="128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="14">
+      <c r="A14" s="69">
+        <v>1</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="87"/>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="135" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="127">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="Q14" s="127">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="R14" s="127">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="S14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="14">
+      <c r="A15" s="59">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="13">
+        <v>2</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="127">
+        <v>41922.46875</v>
+      </c>
+      <c r="Q15" s="127">
+        <v>41922.46875</v>
+      </c>
+      <c r="R15" s="127">
+        <v>41922.46875</v>
+      </c>
+      <c r="S15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="59">
+        <f t="shared" ref="A16:A23" si="0">A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="87"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="107"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="67"/>
+      <c r="G18" s="107" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="59">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="67"/>
+      <c r="G19" s="106"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="59">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="63"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="106"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="59">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="63"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="106"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="59">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="106"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="59">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="63"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="106"/>
+    </row>
+    <row r="25" spans="1:7" ht="12" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="149"/>
+      <c r="E26" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="13">
+      <c r="A27" s="14">
+        <v>1</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="188" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="189"/>
+      <c r="E27" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="57">
+        <v>2</v>
+      </c>
+      <c r="B28" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="C28" s="192" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="193"/>
+      <c r="E28" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="53"/>
+    </row>
+    <row r="29" spans="1:7" ht="12" thickBot="1">
+      <c r="A29" s="56">
+        <v>3</v>
+      </c>
+      <c r="B29" s="184" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="185" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="185"/>
+      <c r="E29" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="182"/>
+    </row>
+    <row r="31" spans="1:7" ht="12" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="14" thickBot="1">
+      <c r="A32" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="142"/>
+      <c r="E32" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="143"/>
+      <c r="G32" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="12" thickBot="1">
+      <c r="A33" s="183">
+        <v>1</v>
+      </c>
+      <c r="B33" s="184" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="186" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="187"/>
+      <c r="E33" s="186" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="187"/>
+      <c r="G33" s="184" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="183">
+        <v>1</v>
+      </c>
+      <c r="B34" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="186" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="187"/>
+      <c r="E34" s="186" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="187"/>
+      <c r="G34" s="184" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12" thickBot="1">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14" thickBot="1">
+      <c r="A37" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="142"/>
+      <c r="E37" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="143"/>
+      <c r="G37" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="18" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="18" customWidth="1"/>
+    <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.83203125" style="13"/>
+    <col min="11" max="11" width="17.6640625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="13" customWidth="1"/>
+    <col min="14" max="15" width="19.33203125" style="13" customWidth="1"/>
+    <col min="16" max="17" width="17" style="13" customWidth="1"/>
+    <col min="18" max="18" width="15.5" style="13" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="12" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="13">
+      <c r="B2" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="162" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="167"/>
+      <c r="E2" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="162" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="163"/>
+    </row>
+    <row r="3" spans="1:19" ht="13">
+      <c r="B3" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="166"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="164">
+        <v>42026</v>
+      </c>
+      <c r="G3" s="165"/>
+    </row>
+    <row r="4" spans="1:19" ht="13">
+      <c r="B4" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="166" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="168"/>
+      <c r="E4" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="166"/>
+      <c r="G4" s="165"/>
+    </row>
+    <row r="5" spans="1:19" ht="13">
+      <c r="B5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="166" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="168"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="165"/>
+    </row>
+    <row r="6" spans="1:19" ht="13">
+      <c r="B6" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="166" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="168"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="165"/>
+    </row>
+    <row r="7" spans="1:19" ht="13">
+      <c r="B7" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="152"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="156"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
+    </row>
+    <row r="10" spans="1:19" ht="12" thickBot="1">
+      <c r="B10" s="157"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="159"/>
+    </row>
+    <row r="12" spans="1:19" ht="12" thickBot="1">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="128" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="128" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="128" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" s="128" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q13" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="S13" s="128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="14">
+      <c r="A14" s="69">
+        <v>1</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="67"/>
+      <c r="G14" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="87"/>
+      <c r="I14" s="13">
+        <v>1</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14" s="135" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" s="127">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="Q14" s="127">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="R14" s="127">
+        <v>41922.465277777781</v>
+      </c>
+      <c r="S14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="14">
+      <c r="A15" s="59">
+        <f>A14+1</f>
+        <v>2</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="107" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="87"/>
+      <c r="I15" s="13">
+        <v>2</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="N15" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="P15" s="127">
+        <v>41922.46875</v>
+      </c>
+      <c r="Q15" s="127">
+        <v>41922.46875</v>
+      </c>
+      <c r="R15" s="127">
+        <v>41922.46875</v>
+      </c>
+      <c r="S15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="59">
+        <f t="shared" ref="A16:A24" si="0">A15+1</f>
+        <v>3</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="67"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="87"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="59">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="67"/>
+      <c r="G17" s="107"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="59">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B18" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="67"/>
+      <c r="G18" s="107"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="59">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="106"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="59">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B20" s="63"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="106"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="59">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="63"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="106"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="59">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B22" s="63"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="106"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="59">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B23" s="63"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="106"/>
+    </row>
+    <row r="24" spans="1:7" ht="12" thickBot="1">
+      <c r="A24" s="70">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="133"/>
+    </row>
+    <row r="26" spans="1:7" ht="12" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="149"/>
+      <c r="E27" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="13">
+      <c r="A28" s="14">
+        <v>1</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="160" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="161"/>
+      <c r="E28" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="57">
+        <v>2</v>
+      </c>
+      <c r="B29" s="184" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="185" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" s="185"/>
+      <c r="E29" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="G29" s="53"/>
+    </row>
+    <row r="30" spans="1:7" ht="12" thickBot="1">
+      <c r="A30" s="56">
+        <v>3</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="32" spans="1:7" ht="12" thickBot="1">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="14" thickBot="1">
+      <c r="A33" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="142"/>
+      <c r="E33" s="141" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="143"/>
+      <c r="G33" s="38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="183">
+        <v>1</v>
+      </c>
+      <c r="B34" s="184" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="186" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="187"/>
+      <c r="E34" s="186" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="187"/>
+      <c r="G34" s="184" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="12" thickBot="1">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14" thickBot="1">
+      <c r="A37" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="141" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="142"/>
+      <c r="E37" s="141" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="143"/>
+      <c r="G37" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
+  <headerFooter>
+    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF008000"/>
@@ -7471,103 +10555,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="142"/>
+      <c r="D2" s="167"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="145"/>
+      <c r="G2" s="163"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="168"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="147"/>
+      <c r="G3" s="165"/>
     </row>
     <row r="4" spans="1:11" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="144"/>
+      <c r="D4" s="168"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="147"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="165"/>
     </row>
     <row r="5" spans="1:11" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="143" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="144"/>
+      <c r="C5" s="166" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="168"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="147"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="165"/>
     </row>
     <row r="6" spans="1:11" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="143" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="144"/>
+      <c r="C6" s="166" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="168"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="147"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="165"/>
     </row>
     <row r="7" spans="1:11" ht="13">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="154"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="152"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="158"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
     </row>
     <row r="10" spans="1:11" ht="12" thickBot="1">
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="159"/>
     </row>
     <row r="12" spans="1:11" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -7602,10 +10686,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>83</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>84</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>53</v>
@@ -7625,20 +10709,20 @@
         <v>2</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>86</v>
-      </c>
       <c r="D15" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="44" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="23"/>
       <c r="G15" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H15" s="76"/>
       <c r="K15" s="79"/>
@@ -7649,10 +10733,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>54</v>
@@ -7671,10 +10755,10 @@
         <v>4</v>
       </c>
       <c r="B17" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="48" t="s">
         <v>78</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>79</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>53</v>
@@ -7686,7 +10770,7 @@
         <v>4</v>
       </c>
       <c r="G17" s="50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K17" s="79"/>
     </row>
@@ -7696,20 +10780,20 @@
         <v>5</v>
       </c>
       <c r="B18" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="84" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="84" t="s">
-        <v>93</v>
-      </c>
       <c r="D18" s="80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="85"/>
       <c r="G18" s="86" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K18" s="79"/>
     </row>
@@ -7765,7 +10849,7 @@
         <v>6</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="45" t="s">
         <v>3</v>
@@ -7810,10 +10894,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="162" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="163"/>
+      <c r="C25" s="160" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="161"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -7827,10 +10911,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="173" t="s">
+      <c r="C26" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="174"/>
+      <c r="D26" s="172"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58" t="s">
         <v>3</v>
@@ -7849,14 +10933,14 @@
       <c r="B29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="150" t="s">
+      <c r="C29" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="151"/>
-      <c r="E29" s="150" t="s">
+      <c r="D29" s="142"/>
+      <c r="E29" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="164"/>
+      <c r="F29" s="143"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -7873,14 +10957,14 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="150" t="s">
+      <c r="C32" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="151"/>
-      <c r="E32" s="150" t="s">
+      <c r="D32" s="142"/>
+      <c r="E32" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="164"/>
+      <c r="F32" s="143"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
@@ -7890,29 +10974,20 @@
         <v>1</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="171" t="s">
+      <c r="C33" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="172"/>
-      <c r="E33" s="173" t="s">
+      <c r="D33" s="170"/>
+      <c r="E33" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="174"/>
+      <c r="F33" s="172"/>
       <c r="G33" s="28" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -7925,6 +11000,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7941,7 +11025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF008000"/>
@@ -7972,105 +11056,105 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="142"/>
+      <c r="D2" s="167"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="145"/>
+      <c r="G2" s="163"/>
     </row>
     <row r="3" spans="1:7" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="168"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="166" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="147"/>
+      <c r="G3" s="165"/>
     </row>
     <row r="4" spans="1:7" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="143" t="s">
+      <c r="C4" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="144"/>
+      <c r="D4" s="168"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="147"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="165"/>
     </row>
     <row r="5" spans="1:7" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="143" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="144"/>
+      <c r="C5" s="166" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="168"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="147"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="165"/>
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="143" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="144"/>
+      <c r="C6" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="168"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="147"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="165"/>
     </row>
     <row r="7" spans="1:7" ht="13">
-      <c r="B7" s="152" t="s">
+      <c r="B7" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="154"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="151"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="152"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="155" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
+      <c r="B8" s="153" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="154"/>
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="155"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="158"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="155"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1">
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="159"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -8105,10 +11189,10 @@
         <v>1</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="60" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>62</v>
       </c>
       <c r="D14" s="71" t="s">
         <v>53</v>
@@ -8127,10 +11211,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="61" t="s">
         <v>83</v>
-      </c>
-      <c r="C15" s="61" t="s">
-        <v>84</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>53</v>
@@ -8147,10 +11231,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="62" t="s">
         <v>76</v>
-      </c>
-      <c r="C16" s="62" t="s">
-        <v>77</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>53</v>
@@ -8196,10 +11280,10 @@
       <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="162" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="163"/>
+      <c r="C20" s="160" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="161"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
@@ -8213,10 +11297,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="171" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="172"/>
+      <c r="C21" s="169" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="170"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>3</v>
@@ -8235,14 +11319,14 @@
       <c r="B24" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="150" t="s">
+      <c r="C24" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="151"/>
-      <c r="E24" s="150" t="s">
+      <c r="D24" s="142"/>
+      <c r="E24" s="141" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="164"/>
+      <c r="F24" s="143"/>
       <c r="G24" s="38" t="s">
         <v>38</v>
       </c>
@@ -8259,14 +11343,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="150" t="s">
+      <c r="C27" s="141" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="151"/>
-      <c r="E27" s="150" t="s">
+      <c r="D27" s="142"/>
+      <c r="E27" s="141" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="164"/>
+      <c r="F27" s="143"/>
       <c r="G27" s="38" t="s">
         <v>39</v>
       </c>
@@ -8276,23 +11360,14 @@
         <v>1</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="172"/>
       <c r="G28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -8305,652 +11380,15 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
-  <headerFooter>
-    <oddHeader>&amp;Lテーブル定義書&amp;R&amp;D</oddHeader>
-    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="1"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:N37"/>
-  <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="3.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="18" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" style="18" customWidth="1"/>
-    <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="12" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="13">
-      <c r="B2" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="141" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="175" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="176"/>
-    </row>
-    <row r="3" spans="1:14" ht="13">
-      <c r="B3" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="146" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" s="147"/>
-    </row>
-    <row r="4" spans="1:14" ht="13">
-      <c r="B4" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="143" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="144"/>
-      <c r="E4" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="147"/>
-    </row>
-    <row r="5" spans="1:14" ht="13">
-      <c r="B5" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="143" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="144"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="147"/>
-    </row>
-    <row r="6" spans="1:14" ht="13">
-      <c r="B6" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="143" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="147"/>
-    </row>
-    <row r="7" spans="1:14" ht="13">
-      <c r="B7" s="152" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="154"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="155"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="157"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="B9" s="158"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="157"/>
-    </row>
-    <row r="10" spans="1:14" ht="12" thickBot="1">
-      <c r="B10" s="159"/>
-      <c r="C10" s="160"/>
-      <c r="D10" s="160"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="160"/>
-      <c r="G10" s="161"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-    </row>
-    <row r="12" spans="1:14" ht="12" thickBot="1">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="14">
-        <f>A14+1</f>
-        <v>2</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="14">
-        <f t="shared" ref="A16:A18" si="0">A15+1</f>
-        <v>3</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-    </row>
-    <row r="18" spans="1:14" ht="12" thickBot="1">
-      <c r="A18" s="56">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-    </row>
-    <row r="20" spans="1:14" ht="12" thickBot="1">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="148" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="149"/>
-      <c r="E21" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-    </row>
-    <row r="22" spans="1:14" ht="13">
-      <c r="A22" s="14">
-        <v>1</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="162" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="163"/>
-      <c r="E22" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-    </row>
-    <row r="23" spans="1:14" ht="13" customHeight="1">
-      <c r="A23" s="57">
-        <v>2</v>
-      </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="167" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="168"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="53"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-    </row>
-    <row r="24" spans="1:14" ht="14" thickBot="1">
-      <c r="A24" s="16">
-        <v>3</v>
-      </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="171" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="172"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-    </row>
-    <row r="26" spans="1:14" ht="12" thickBot="1">
-      <c r="A26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-    </row>
-    <row r="27" spans="1:14" ht="14" thickBot="1">
-      <c r="A27" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="150" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="151"/>
-      <c r="E27" s="150" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="164"/>
-      <c r="G27" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H27" s="87"/>
-      <c r="I27" s="87"/>
-      <c r="J27" s="87"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="87"/>
-    </row>
-    <row r="29" spans="1:14" ht="12" thickBot="1">
-      <c r="A29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-    </row>
-    <row r="30" spans="1:14" ht="14" thickBot="1">
-      <c r="A30" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="150" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="151"/>
-      <c r="E30" s="150" t="s">
-        <v>37</v>
-      </c>
-      <c r="F30" s="164"/>
-      <c r="G30" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-    </row>
-    <row r="31" spans="1:14" ht="13">
-      <c r="A31" s="57">
-        <v>1</v>
-      </c>
-      <c r="B31" s="51"/>
-      <c r="C31" s="162" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="163"/>
-      <c r="E31" s="167" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="168"/>
-      <c r="G31" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-    </row>
-    <row r="32" spans="1:14" ht="14" thickBot="1">
-      <c r="A32" s="56">
-        <v>2</v>
-      </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="169" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="170"/>
-      <c r="E32" s="173" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="174"/>
-      <c r="G32" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-    </row>
-    <row r="33" spans="8:13">
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-    </row>
-    <row r="34" spans="8:13">
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-    </row>
-    <row r="35" spans="8:13">
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
-      <c r="L35" s="87"/>
-      <c r="M35" s="87"/>
-    </row>
-    <row r="36" spans="8:13">
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-    </row>
-    <row r="37" spans="8:13">
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
-      <c r="L37" s="87"/>
-      <c r="M37" s="87"/>
-    </row>
-  </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TRILE.xlsx
+++ b/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TRILE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="34560" windowHeight="17020" tabRatio="818" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="34560" windowHeight="17020" tabRatio="818" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="175">
   <si>
     <t>No</t>
   </si>
@@ -432,12 +432,6 @@
   </si>
   <si>
     <t>version_id, rank_number, rank_type</t>
-  </si>
-  <si>
-    <t>create_dt</t>
-  </si>
-  <si>
-    <t>update_dt</t>
   </si>
   <si>
     <t>Init version</t>
@@ -459,9 +453,6 @@
     <t>Username</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>Just allow a-z, 0-9.</t>
   </si>
   <si>
@@ -474,9 +465,6 @@
     <t>b29f1055992addafd37270e601b5ff44</t>
   </si>
   <si>
-    <t>boitv</t>
-  </si>
-  <si>
     <t>d9e9c530659814acd65c284e1895b384</t>
   </si>
   <si>
@@ -484,12 +472,6 @@
   </si>
   <si>
     <t>System ID</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>last_login_dt</t>
   </si>
   <si>
     <t>Mini Blog Database Design (MySQL)</t>
@@ -504,170 +486,187 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>TriLe</t>
+  </si>
+  <si>
+    <t>_user</t>
+  </si>
+  <si>
+    <t>Avatarlink</t>
+  </si>
+  <si>
+    <t>avatar_link</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>VARCHAR(64)</t>
+  </si>
+  <si>
+    <t>VARCHAR(256)</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>Use SHA_256 to hash password</t>
+  </si>
+  <si>
+    <t>Joindate</t>
+  </si>
+  <si>
+    <t>join_date</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>_users</t>
+  </si>
+  <si>
+    <t>fk_posts_users</t>
+  </si>
+  <si>
+    <t>_posts</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>fk_tokens_users</t>
+  </si>
+  <si>
+    <t>_tokens</t>
+  </si>
+  <si>
+    <t>_comments</t>
+  </si>
+  <si>
+    <t>fk_comments_users</t>
+  </si>
+  <si>
+    <t>Post info</t>
+  </si>
+  <si>
+    <t>Post Info</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>Createtime</t>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>Edittime</t>
+  </si>
+  <si>
+    <t>edit_time</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+  </si>
+  <si>
+    <t>VARCHAR(1024)</t>
+  </si>
+  <si>
+    <t>fk_comments_posts</t>
+  </si>
+  <si>
+    <t>partner_id</t>
+  </si>
+  <si>
+    <t>Comments Info</t>
+  </si>
+  <si>
+    <t>PartnerID</t>
+  </si>
+  <si>
+    <t>ID of Post</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>Token Info</t>
+  </si>
+  <si>
+    <t>Expiredtime</t>
+  </si>
+  <si>
+    <t>expired_time</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>Comments info</t>
+  </si>
+  <si>
+    <t>Token info</t>
+  </si>
+  <si>
+    <t>Hashpass</t>
+  </si>
+  <si>
+    <t>hash_pass</t>
+  </si>
+  <si>
+    <t>tri.le</t>
+  </si>
+  <si>
+    <t>tri.jpg</t>
+  </si>
+  <si>
+    <t>Tri</t>
+  </si>
+  <si>
+    <t>Le</t>
+  </si>
+  <si>
+    <t>Vu</t>
+  </si>
+  <si>
+    <t>Truong</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
     <t>…</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>..</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>TriLe</t>
-  </si>
-  <si>
-    <t>_user</t>
-  </si>
-  <si>
-    <t>Avatarlink</t>
-  </si>
-  <si>
-    <t>avatar_link</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>VARCHAR(64)</t>
-  </si>
-  <si>
-    <t>VARCHAR(256)</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>Hashmap</t>
-  </si>
-  <si>
-    <t>hash_map</t>
-  </si>
-  <si>
-    <t>Use SHA_256 to hash password</t>
-  </si>
-  <si>
-    <t>Joindate</t>
-  </si>
-  <si>
-    <t>join_date</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>_users</t>
-  </si>
-  <si>
-    <t>fk_posts_users</t>
-  </si>
-  <si>
-    <t>_posts</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>fk_tokens_users</t>
-  </si>
-  <si>
-    <t>_tokens</t>
-  </si>
-  <si>
-    <t>_comments</t>
-  </si>
-  <si>
-    <t>fk_comments_users</t>
-  </si>
-  <si>
-    <t>Post info</t>
-  </si>
-  <si>
-    <t>Post Info</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t>Createtime</t>
-  </si>
-  <si>
-    <t>create_time</t>
-  </si>
-  <si>
-    <t>Edittime</t>
-  </si>
-  <si>
-    <t>edit_time</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>UserID</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
-    <t>VARCHAR(1024)</t>
-  </si>
-  <si>
-    <t>fk_comments_posts</t>
-  </si>
-  <si>
-    <t>partner_id</t>
-  </si>
-  <si>
-    <t>Comments Info</t>
-  </si>
-  <si>
-    <t>PartnerID</t>
-  </si>
-  <si>
-    <t>ID of Post</t>
-  </si>
-  <si>
-    <t>INDEX</t>
-  </si>
-  <si>
-    <t>Token Info</t>
-  </si>
-  <si>
-    <t>Expiredtime</t>
-  </si>
-  <si>
-    <t>expired_time</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>Comments info</t>
-  </si>
-  <si>
-    <t>Token info</t>
+  </si>
+  <si>
+    <t>Blog 1</t>
+  </si>
+  <si>
+    <t>Blog 2</t>
+  </si>
+  <si>
+    <t>I like it</t>
   </si>
 </sst>
 </file>
@@ -678,7 +677,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,6 +852,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -880,7 +885,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="67">
+  <borders count="79">
     <border>
       <left/>
       <right/>
@@ -1745,10 +1750,10 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="dotted">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1756,14 +1761,174 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="dotted">
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="491">
+  <cellStyleXfs count="511">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3234,8 +3399,68 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3605,6 +3830,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3615,6 +3852,75 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3624,79 +3930,25 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3723,62 +3975,215 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="22" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="22" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="22" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="22" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="491">
+  <cellStyles count="511">
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -4262,6 +4667,26 @@
     <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="489" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="491" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="493" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="495" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="497" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="499" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="501" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="503" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="505" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="507" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ハイパーリンク 2" xfId="4"/>
@@ -5515,29 +5940,29 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="137"/>
-      <c r="P13" s="137"/>
-      <c r="Q13" s="137"/>
-      <c r="R13" s="137"/>
-      <c r="S13" s="137"/>
-      <c r="T13" s="137"/>
-      <c r="U13" s="137"/>
-      <c r="V13" s="137"/>
-      <c r="W13" s="137"/>
-      <c r="X13" s="137"/>
-      <c r="Y13" s="137"/>
-      <c r="Z13" s="137"/>
-      <c r="AA13" s="137"/>
-      <c r="AB13" s="137"/>
-      <c r="AC13" s="137"/>
-      <c r="AD13" s="137"/>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="137"/>
-      <c r="AG13" s="137"/>
-      <c r="AH13" s="137"/>
-      <c r="AI13" s="137"/>
-      <c r="AJ13" s="137"/>
-      <c r="AK13" s="137"/>
+      <c r="O13" s="141"/>
+      <c r="P13" s="141"/>
+      <c r="Q13" s="141"/>
+      <c r="R13" s="141"/>
+      <c r="S13" s="141"/>
+      <c r="T13" s="141"/>
+      <c r="U13" s="141"/>
+      <c r="V13" s="141"/>
+      <c r="W13" s="141"/>
+      <c r="X13" s="141"/>
+      <c r="Y13" s="141"/>
+      <c r="Z13" s="141"/>
+      <c r="AA13" s="141"/>
+      <c r="AB13" s="141"/>
+      <c r="AC13" s="141"/>
+      <c r="AD13" s="141"/>
+      <c r="AE13" s="141"/>
+      <c r="AF13" s="141"/>
+      <c r="AG13" s="141"/>
+      <c r="AH13" s="141"/>
+      <c r="AI13" s="141"/>
+      <c r="AJ13" s="141"/>
+      <c r="AK13" s="141"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -5569,29 +5994,29 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="137"/>
-      <c r="P14" s="137"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="137"/>
-      <c r="S14" s="137"/>
-      <c r="T14" s="137"/>
-      <c r="U14" s="137"/>
-      <c r="V14" s="137"/>
-      <c r="W14" s="137"/>
-      <c r="X14" s="137"/>
-      <c r="Y14" s="137"/>
-      <c r="Z14" s="137"/>
-      <c r="AA14" s="137"/>
-      <c r="AB14" s="137"/>
-      <c r="AC14" s="137"/>
-      <c r="AD14" s="137"/>
-      <c r="AE14" s="137"/>
-      <c r="AF14" s="137"/>
-      <c r="AG14" s="137"/>
-      <c r="AH14" s="137"/>
-      <c r="AI14" s="137"/>
-      <c r="AJ14" s="137"/>
-      <c r="AK14" s="137"/>
+      <c r="O14" s="141"/>
+      <c r="P14" s="141"/>
+      <c r="Q14" s="141"/>
+      <c r="R14" s="141"/>
+      <c r="S14" s="141"/>
+      <c r="T14" s="141"/>
+      <c r="U14" s="141"/>
+      <c r="V14" s="141"/>
+      <c r="W14" s="141"/>
+      <c r="X14" s="141"/>
+      <c r="Y14" s="141"/>
+      <c r="Z14" s="141"/>
+      <c r="AA14" s="141"/>
+      <c r="AB14" s="141"/>
+      <c r="AC14" s="141"/>
+      <c r="AD14" s="141"/>
+      <c r="AE14" s="141"/>
+      <c r="AF14" s="141"/>
+      <c r="AG14" s="141"/>
+      <c r="AH14" s="141"/>
+      <c r="AI14" s="141"/>
+      <c r="AJ14" s="141"/>
+      <c r="AK14" s="141"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
@@ -5619,43 +6044,43 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="138" t="s">
-        <v>117</v>
-      </c>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
-      <c r="N15" s="138"/>
-      <c r="O15" s="138"/>
-      <c r="P15" s="138"/>
-      <c r="Q15" s="138"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="138"/>
-      <c r="U15" s="138"/>
-      <c r="V15" s="138"/>
-      <c r="W15" s="138"/>
-      <c r="X15" s="138"/>
-      <c r="Y15" s="138"/>
-      <c r="Z15" s="138"/>
-      <c r="AA15" s="138"/>
-      <c r="AB15" s="138"/>
-      <c r="AC15" s="138"/>
-      <c r="AD15" s="138"/>
-      <c r="AE15" s="138"/>
-      <c r="AF15" s="138"/>
-      <c r="AG15" s="138"/>
-      <c r="AH15" s="138"/>
-      <c r="AI15" s="138"/>
-      <c r="AJ15" s="138"/>
-      <c r="AK15" s="138"/>
-      <c r="AL15" s="138"/>
-      <c r="AM15" s="138"/>
-      <c r="AN15" s="138"/>
-      <c r="AO15" s="138"/>
-      <c r="AP15" s="138"/>
-      <c r="AQ15" s="138"/>
-      <c r="AR15" s="138"/>
-      <c r="AS15" s="138"/>
+      <c r="K15" s="142" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
+      <c r="N15" s="142"/>
+      <c r="O15" s="142"/>
+      <c r="P15" s="142"/>
+      <c r="Q15" s="142"/>
+      <c r="R15" s="142"/>
+      <c r="S15" s="142"/>
+      <c r="T15" s="142"/>
+      <c r="U15" s="142"/>
+      <c r="V15" s="142"/>
+      <c r="W15" s="142"/>
+      <c r="X15" s="142"/>
+      <c r="Y15" s="142"/>
+      <c r="Z15" s="142"/>
+      <c r="AA15" s="142"/>
+      <c r="AB15" s="142"/>
+      <c r="AC15" s="142"/>
+      <c r="AD15" s="142"/>
+      <c r="AE15" s="142"/>
+      <c r="AF15" s="142"/>
+      <c r="AG15" s="142"/>
+      <c r="AH15" s="142"/>
+      <c r="AI15" s="142"/>
+      <c r="AJ15" s="142"/>
+      <c r="AK15" s="142"/>
+      <c r="AL15" s="142"/>
+      <c r="AM15" s="142"/>
+      <c r="AN15" s="142"/>
+      <c r="AO15" s="142"/>
+      <c r="AP15" s="142"/>
+      <c r="AQ15" s="142"/>
+      <c r="AR15" s="142"/>
+      <c r="AS15" s="142"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -5675,41 +6100,41 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
-      <c r="N16" s="138"/>
-      <c r="O16" s="138"/>
-      <c r="P16" s="138"/>
-      <c r="Q16" s="138"/>
-      <c r="R16" s="138"/>
-      <c r="S16" s="138"/>
-      <c r="T16" s="138"/>
-      <c r="U16" s="138"/>
-      <c r="V16" s="138"/>
-      <c r="W16" s="138"/>
-      <c r="X16" s="138"/>
-      <c r="Y16" s="138"/>
-      <c r="Z16" s="138"/>
-      <c r="AA16" s="138"/>
-      <c r="AB16" s="138"/>
-      <c r="AC16" s="138"/>
-      <c r="AD16" s="138"/>
-      <c r="AE16" s="138"/>
-      <c r="AF16" s="138"/>
-      <c r="AG16" s="138"/>
-      <c r="AH16" s="138"/>
-      <c r="AI16" s="138"/>
-      <c r="AJ16" s="138"/>
-      <c r="AK16" s="138"/>
-      <c r="AL16" s="138"/>
-      <c r="AM16" s="138"/>
-      <c r="AN16" s="138"/>
-      <c r="AO16" s="138"/>
-      <c r="AP16" s="138"/>
-      <c r="AQ16" s="138"/>
-      <c r="AR16" s="138"/>
-      <c r="AS16" s="138"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="142"/>
+      <c r="P16" s="142"/>
+      <c r="Q16" s="142"/>
+      <c r="R16" s="142"/>
+      <c r="S16" s="142"/>
+      <c r="T16" s="142"/>
+      <c r="U16" s="142"/>
+      <c r="V16" s="142"/>
+      <c r="W16" s="142"/>
+      <c r="X16" s="142"/>
+      <c r="Y16" s="142"/>
+      <c r="Z16" s="142"/>
+      <c r="AA16" s="142"/>
+      <c r="AB16" s="142"/>
+      <c r="AC16" s="142"/>
+      <c r="AD16" s="142"/>
+      <c r="AE16" s="142"/>
+      <c r="AF16" s="142"/>
+      <c r="AG16" s="142"/>
+      <c r="AH16" s="142"/>
+      <c r="AI16" s="142"/>
+      <c r="AJ16" s="142"/>
+      <c r="AK16" s="142"/>
+      <c r="AL16" s="142"/>
+      <c r="AM16" s="142"/>
+      <c r="AN16" s="142"/>
+      <c r="AO16" s="142"/>
+      <c r="AP16" s="142"/>
+      <c r="AQ16" s="142"/>
+      <c r="AR16" s="142"/>
+      <c r="AS16" s="142"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -6298,14 +6723,14 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="7"/>
-      <c r="AN27" s="139">
+      <c r="AN27" s="143">
         <v>42026</v>
       </c>
-      <c r="AO27" s="139"/>
-      <c r="AP27" s="139"/>
-      <c r="AQ27" s="139"/>
-      <c r="AR27" s="139"/>
-      <c r="AS27" s="139"/>
+      <c r="AO27" s="143"/>
+      <c r="AP27" s="143"/>
+      <c r="AQ27" s="143"/>
+      <c r="AR27" s="143"/>
+      <c r="AS27" s="143"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12"/>
@@ -6795,103 +7220,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="167"/>
+      <c r="D2" s="146"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="175" t="s">
+      <c r="F2" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="176"/>
+      <c r="G2" s="185"/>
     </row>
     <row r="3" spans="1:14" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="168"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="164" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="165"/>
+      <c r="F3" s="150" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="151"/>
     </row>
     <row r="4" spans="1:14" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="168"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="165"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="151"/>
     </row>
     <row r="5" spans="1:14" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="166" t="s">
+      <c r="C5" s="147" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="168"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="165"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="151"/>
     </row>
     <row r="6" spans="1:14" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="166" t="s">
+      <c r="C6" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="168"/>
+      <c r="D6" s="148"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="165"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="151"/>
     </row>
     <row r="7" spans="1:14" ht="13">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="152"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="158"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="153"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="155"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="156"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="155"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
     </row>
     <row r="10" spans="1:14" ht="12" thickBot="1">
-      <c r="B10" s="157"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="159"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="165"/>
     </row>
     <row r="11" spans="1:14">
       <c r="H11" s="87"/>
@@ -7107,10 +7532,10 @@
       <c r="B21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="149"/>
+      <c r="D21" s="153"/>
       <c r="E21" s="34" t="s">
         <v>33</v>
       </c>
@@ -7134,10 +7559,10 @@
       <c r="B22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="160" t="s">
+      <c r="C22" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="161"/>
+      <c r="D22" s="177"/>
       <c r="E22" s="46" t="s">
         <v>3</v>
       </c>
@@ -7157,10 +7582,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="146" t="s">
+      <c r="C23" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="147"/>
+      <c r="D23" s="172"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52" t="s">
         <v>3</v>
@@ -7178,10 +7603,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="169" t="s">
+      <c r="C24" s="178" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="170"/>
+      <c r="D24" s="179"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45" t="s">
         <v>3</v>
@@ -7220,14 +7645,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="141" t="s">
+      <c r="C27" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="142"/>
-      <c r="E27" s="141" t="s">
+      <c r="D27" s="169"/>
+      <c r="E27" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="143"/>
+      <c r="F27" s="170"/>
       <c r="G27" s="38" t="s">
         <v>38</v>
       </c>
@@ -7264,14 +7689,14 @@
       <c r="B30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="141" t="s">
+      <c r="C30" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="142"/>
-      <c r="E30" s="141" t="s">
+      <c r="D30" s="169"/>
+      <c r="E30" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="143"/>
+      <c r="F30" s="170"/>
       <c r="G30" s="38" t="s">
         <v>39</v>
       </c>
@@ -7287,14 +7712,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="160" t="s">
+      <c r="C31" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="161"/>
-      <c r="E31" s="146" t="s">
+      <c r="D31" s="177"/>
+      <c r="E31" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="147"/>
+      <c r="F31" s="172"/>
       <c r="G31" s="53" t="s">
         <v>76</v>
       </c>
@@ -7310,14 +7735,14 @@
         <v>2</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="173" t="s">
+      <c r="C32" s="182" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="174"/>
-      <c r="E32" s="171" t="s">
+      <c r="D32" s="183"/>
+      <c r="E32" s="180" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="172"/>
+      <c r="F32" s="181"/>
       <c r="G32" s="55" t="s">
         <v>52</v>
       </c>
@@ -7370,14 +7795,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C31:D31"/>
@@ -7394,6 +7811,14 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7454,13 +7879,13 @@
         <v>42026</v>
       </c>
       <c r="C3" s="114" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D3" s="94" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E3" s="95" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F3" s="96"/>
     </row>
@@ -7700,8 +8125,8 @@
   </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -7712,11 +8137,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" thickBot="1">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
     </row>
     <row r="2" spans="1:3" ht="12" thickBot="1">
       <c r="A2" s="118" t="s">
@@ -7734,10 +8159,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="122" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="136" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14">
@@ -7746,10 +8171,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="194" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14">
@@ -7758,10 +8183,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>172</v>
-      </c>
-      <c r="C5" s="194" t="s">
-        <v>147</v>
+        <v>160</v>
+      </c>
+      <c r="C5" s="140" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14">
@@ -7770,10 +8195,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="194" t="s">
-        <v>146</v>
+        <v>161</v>
+      </c>
+      <c r="C6" s="140" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7982,10 +8407,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:E27"/>
+    <sheetView topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N15" activeCellId="1" sqref="N14 N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -7996,132 +8421,132 @@
     <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.83203125" style="13"/>
+    <col min="9" max="9" width="4.5" style="13" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="13"/>
     <col min="11" max="11" width="17.6640625" style="13" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" style="13" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="13" customWidth="1"/>
-    <col min="14" max="15" width="19.33203125" style="13" customWidth="1"/>
-    <col min="16" max="17" width="17" style="13" customWidth="1"/>
-    <col min="18" max="18" width="15.5" style="13" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="13"/>
+    <col min="14" max="14" width="28" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" style="13" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12" thickBot="1">
+    <row r="1" spans="1:15" ht="12" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13">
+    <row r="2" spans="1:15" ht="13">
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="162" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="167"/>
+      <c r="C2" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="146"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="162" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="163"/>
-    </row>
-    <row r="3" spans="1:19" ht="13">
+      <c r="F2" s="145" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="149"/>
+    </row>
+    <row r="3" spans="1:15" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="168"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="164">
+      <c r="F3" s="150">
         <v>42026</v>
       </c>
-      <c r="G3" s="165"/>
-    </row>
-    <row r="4" spans="1:19" ht="13">
+      <c r="G3" s="151"/>
+    </row>
+    <row r="4" spans="1:15" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="166" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="168"/>
+      <c r="C4" s="147" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="148"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="165"/>
-    </row>
-    <row r="5" spans="1:19" ht="13">
+      <c r="F4" s="147"/>
+      <c r="G4" s="151"/>
+    </row>
+    <row r="5" spans="1:15" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="166" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="168"/>
+      <c r="C5" s="147" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="148"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="165"/>
-    </row>
-    <row r="6" spans="1:19" ht="13">
+      <c r="F5" s="147"/>
+      <c r="G5" s="151"/>
+    </row>
+    <row r="6" spans="1:15" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="166" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" s="168"/>
+      <c r="C6" s="147" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="148"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="165"/>
-    </row>
-    <row r="7" spans="1:19" ht="13">
-      <c r="B7" s="150" t="s">
+      <c r="F6" s="147"/>
+      <c r="G6" s="151"/>
+    </row>
+    <row r="7" spans="1:15" ht="13">
+      <c r="B7" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="152"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="B8" s="153"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="155"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="B9" s="156"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="155"/>
-    </row>
-    <row r="10" spans="1:19" ht="12" thickBot="1">
-      <c r="B10" s="157"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="159"/>
-    </row>
-    <row r="12" spans="1:19" ht="12" thickBot="1">
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="158"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="162"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
+    </row>
+    <row r="10" spans="1:15" ht="12" thickBot="1">
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="165"/>
+    </row>
+    <row r="12" spans="1:15" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="30" t="s">
         <v>0</v>
       </c>
@@ -8143,47 +8568,37 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="128" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="128" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="N13" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="O13" s="128" t="s">
+      <c r="I13" s="230" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="228" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" s="228" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="228" t="s">
         <v>122</v>
       </c>
-      <c r="P13" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q13" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="128" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="14">
+      <c r="M13" s="228" t="s">
+        <v>124</v>
+      </c>
+      <c r="N13" s="228" t="s">
+        <v>163</v>
+      </c>
+      <c r="O13" s="229" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="69">
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>53</v>
@@ -8196,103 +8611,83 @@
         <v>50</v>
       </c>
       <c r="H14" s="87"/>
-      <c r="I14" s="13">
+      <c r="I14" s="212">
         <v>1</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N14" s="135" t="s">
-        <v>123</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="127">
+      <c r="J14" s="192" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" s="223"/>
+      <c r="L14" s="223" t="s">
+        <v>168</v>
+      </c>
+      <c r="M14" s="223" t="s">
+        <v>169</v>
+      </c>
+      <c r="N14" s="223" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" s="224">
         <v>41922.465277777781</v>
       </c>
-      <c r="Q14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="R14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="S14" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="14">
+    </row>
+    <row r="15" spans="1:15" ht="12" thickBot="1">
       <c r="A15" s="59">
         <f>A14+1</f>
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="107" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H15" s="87"/>
-      <c r="I15" s="13">
+      <c r="I15" s="56">
         <v>2</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N15" s="135" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="P15" s="127">
+      <c r="J15" s="225" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" s="226" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" s="226" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" s="226" t="s">
+        <v>167</v>
+      </c>
+      <c r="N15" s="226" t="s">
+        <v>108</v>
+      </c>
+      <c r="O15" s="227">
         <v>41922.46875</v>
       </c>
-      <c r="Q15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="R15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="S15" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="59">
         <f t="shared" ref="A16:A23" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>0</v>
@@ -8307,20 +8702,20 @@
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="67"/>
       <c r="G17" s="107" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -8329,20 +8724,20 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D18" s="129" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E18" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="67"/>
       <c r="G18" s="107" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -8351,20 +8746,20 @@
         <v>6</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="D19" s="129" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E19" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="67"/>
       <c r="G19" s="106" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -8373,13 +8768,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D20" s="129" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E20" s="66" t="s">
         <v>3</v>
@@ -8411,17 +8806,17 @@
       <c r="F22" s="67"/>
       <c r="G22" s="106"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="59">
+    <row r="23" spans="1:7" ht="12" thickBot="1">
+      <c r="A23" s="70">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="106"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="189"/>
     </row>
     <row r="25" spans="1:7" ht="12" thickBot="1">
       <c r="A25" s="1" t="s">
@@ -8435,10 +8830,10 @@
       <c r="B26" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="149"/>
+      <c r="D26" s="153"/>
       <c r="E26" s="34" t="s">
         <v>33</v>
       </c>
@@ -8456,10 +8851,10 @@
       <c r="B27" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="188" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="189"/>
+      <c r="C27" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="167"/>
       <c r="E27" s="46" t="s">
         <v>3</v>
       </c>
@@ -8472,20 +8867,20 @@
       <c r="A28" s="57">
         <v>2</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="171"/>
+      <c r="D28" s="172"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7" ht="12" thickBot="1">
       <c r="A29" s="56">
         <v>3</v>
       </c>
       <c r="B29" s="54"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="145"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="191"/>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
       <c r="G29" s="55"/>
@@ -8495,134 +8890,145 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="13">
+    <row r="32" spans="1:7" ht="14" thickBot="1">
       <c r="A32" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="177" t="s">
+      <c r="B32" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="178" t="s">
+      <c r="C32" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="179"/>
-      <c r="E32" s="178" t="s">
+      <c r="D32" s="155"/>
+      <c r="E32" s="154" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="180"/>
-      <c r="G32" s="181" t="s">
+      <c r="F32" s="173"/>
+      <c r="G32" s="139" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12" thickBot="1">
-      <c r="A34" s="1" t="s">
+    <row r="33" spans="1:7" ht="12" thickBot="1">
+      <c r="A33" s="203"/>
+      <c r="B33" s="204"/>
+      <c r="C33" s="205"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="205"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="204"/>
+    </row>
+    <row r="35" spans="1:7" ht="12" thickBot="1">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14" thickBot="1">
-      <c r="A35" s="36" t="s">
+    <row r="36" spans="1:7" ht="14" thickBot="1">
+      <c r="A36" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B36" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="141" t="s">
+      <c r="C36" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="142"/>
-      <c r="E35" s="141" t="s">
+      <c r="D36" s="169"/>
+      <c r="E36" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="143"/>
-      <c r="G35" s="38" t="s">
+      <c r="F36" s="170"/>
+      <c r="G36" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12" thickBot="1">
-      <c r="A36" s="183">
+    <row r="37" spans="1:7">
+      <c r="A37" s="208">
         <v>1</v>
       </c>
-      <c r="B36" s="184" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="186" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="187"/>
-      <c r="E36" s="186" t="s">
-        <v>143</v>
-      </c>
-      <c r="F36" s="187"/>
-      <c r="G36" s="184" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="12" thickBot="1">
-      <c r="A37" s="183">
+      <c r="B37" s="201" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="194" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="195"/>
+      <c r="E37" s="194" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="195"/>
+      <c r="G37" s="201" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="207">
         <v>2</v>
       </c>
-      <c r="B37" s="184" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="186" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="187"/>
-      <c r="E37" s="186" t="s">
-        <v>146</v>
-      </c>
-      <c r="F37" s="187"/>
-      <c r="G37" s="184" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="183">
+      <c r="B38" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="199" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="200"/>
+      <c r="E38" s="199" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="200"/>
+      <c r="G38" s="46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12" thickBot="1">
+      <c r="A39" s="196">
         <v>3</v>
       </c>
-      <c r="B38" s="184" t="s">
-        <v>148</v>
-      </c>
-      <c r="C38" s="186" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="187"/>
-      <c r="E38" s="186" t="s">
-        <v>147</v>
-      </c>
-      <c r="F38" s="187"/>
-      <c r="G38" s="184" t="s">
-        <v>144</v>
+      <c r="B39" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="197" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="198"/>
+      <c r="E39" s="197" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" s="198"/>
+      <c r="G39" s="45" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8644,9 +9050,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
@@ -8656,132 +9064,132 @@
     <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.83203125" style="13"/>
+    <col min="9" max="9" width="6" style="13" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="13"/>
     <col min="11" max="11" width="17.6640625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="13" customWidth="1"/>
-    <col min="14" max="15" width="19.33203125" style="13" customWidth="1"/>
-    <col min="16" max="17" width="17" style="13" customWidth="1"/>
-    <col min="18" max="18" width="15.5" style="13" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="13"/>
+    <col min="12" max="13" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="17" style="13" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="13" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12" thickBot="1">
+    <row r="1" spans="1:18" ht="12" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13">
+    <row r="2" spans="1:18" ht="13">
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="162" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="167"/>
+      <c r="C2" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="146"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="162" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="163"/>
-    </row>
-    <row r="3" spans="1:19" ht="13">
+      <c r="F2" s="145" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="149"/>
+    </row>
+    <row r="3" spans="1:18" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="168"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="164">
+      <c r="F3" s="150">
         <v>42026</v>
       </c>
-      <c r="G3" s="165"/>
-    </row>
-    <row r="4" spans="1:19" ht="13">
+      <c r="G3" s="151"/>
+    </row>
+    <row r="4" spans="1:18" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="166" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="168"/>
+      <c r="C4" s="147" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="148"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="165"/>
-    </row>
-    <row r="5" spans="1:19" ht="13">
+      <c r="F4" s="147"/>
+      <c r="G4" s="151"/>
+    </row>
+    <row r="5" spans="1:18" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="166" t="s">
-        <v>150</v>
-      </c>
-      <c r="D5" s="168"/>
+      <c r="C5" s="147" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="148"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="165"/>
-    </row>
-    <row r="6" spans="1:19" ht="13">
+      <c r="F5" s="147"/>
+      <c r="G5" s="151"/>
+    </row>
+    <row r="6" spans="1:18" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="166" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="168"/>
+      <c r="C6" s="147" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="148"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="165"/>
-    </row>
-    <row r="7" spans="1:19" ht="13">
-      <c r="B7" s="150" t="s">
+      <c r="F6" s="147"/>
+      <c r="G6" s="151"/>
+    </row>
+    <row r="7" spans="1:18" ht="13">
+      <c r="B7" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="152"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="B8" s="153"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="155"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="B9" s="156"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="155"/>
-    </row>
-    <row r="10" spans="1:19" ht="12" thickBot="1">
-      <c r="B10" s="157"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="159"/>
-    </row>
-    <row r="12" spans="1:19" ht="12" thickBot="1">
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="158"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9" s="162"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
+    </row>
+    <row r="10" spans="1:18" ht="12" thickBot="1">
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="165"/>
+    </row>
+    <row r="12" spans="1:18" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
         <v>0</v>
       </c>
@@ -8803,47 +9211,38 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="128" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="128" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="N13" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="O13" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q13" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="128" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="14">
+      <c r="I13" s="241" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="231" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="231" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="231" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" s="231" t="s">
+        <v>143</v>
+      </c>
+      <c r="N13" s="232" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="69">
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>53</v>
@@ -8856,38 +9255,29 @@
         <v>50</v>
       </c>
       <c r="H14" s="87"/>
-      <c r="I14" s="13">
+      <c r="I14" s="233">
         <v>1</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N14" s="135" t="s">
-        <v>123</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="127">
+      <c r="J14" s="234" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="235" t="s">
+        <v>172</v>
+      </c>
+      <c r="L14" s="252">
         <v>41922.465277777781</v>
       </c>
-      <c r="Q14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="R14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="S14" s="13">
+      <c r="M14" s="250">
+        <v>41927.465277777781</v>
+      </c>
+      <c r="N14" s="221">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="14">
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
+    </row>
+    <row r="15" spans="1:18" ht="12" thickBot="1">
       <c r="A15" s="59">
         <v>2</v>
       </c>
@@ -8895,10 +9285,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
@@ -8906,49 +9296,38 @@
       <c r="F15" s="67"/>
       <c r="G15" s="107"/>
       <c r="H15" s="87"/>
-      <c r="I15" s="13">
+      <c r="I15" s="236">
         <v>2</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N15" s="135" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="P15" s="127">
+      <c r="J15" s="237" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="238" t="s">
+        <v>173</v>
+      </c>
+      <c r="L15" s="249">
         <v>41922.46875</v>
       </c>
-      <c r="Q15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="R15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="S15" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="14">
+      <c r="M15" s="251"/>
+      <c r="N15" s="222">
+        <v>2</v>
+      </c>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+    </row>
+    <row r="16" spans="1:18" ht="14">
       <c r="A16" s="69">
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
@@ -8957,22 +9336,22 @@
       <c r="G16" s="107"/>
       <c r="H16" s="87"/>
       <c r="N16" s="135"/>
+      <c r="O16" s="127"/>
       <c r="P16" s="127"/>
       <c r="Q16" s="127"/>
-      <c r="R16" s="127"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="59">
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>3</v>
@@ -8986,13 +9365,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E18" s="66" t="s">
         <v>0</v>
@@ -9005,10 +9384,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D19" s="65" t="s">
         <v>53</v>
@@ -9052,16 +9431,16 @@
       <c r="F22" s="67"/>
       <c r="G22" s="106"/>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="59">
+    <row r="23" spans="1:8" ht="12" thickBot="1">
+      <c r="A23" s="70">
         <v>10</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="106"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="189"/>
     </row>
     <row r="25" spans="1:8" ht="12" thickBot="1">
       <c r="A25" s="1" t="s">
@@ -9075,10 +9454,10 @@
       <c r="B26" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="149"/>
+      <c r="D26" s="153"/>
       <c r="E26" s="34" t="s">
         <v>33</v>
       </c>
@@ -9093,47 +9472,47 @@
       <c r="A27" s="14">
         <v>1</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="188" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="189"/>
-      <c r="E27" s="46" t="s">
+      <c r="C27" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="167"/>
+      <c r="E27" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="202"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="57">
         <v>2</v>
       </c>
-      <c r="B28" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="190" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="191"/>
-      <c r="E28" s="52" t="s">
+      <c r="B28" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="174" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="175"/>
+      <c r="E28" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="184" t="s">
+      <c r="F28" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="53"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:8" ht="12" thickBot="1">
       <c r="A29" s="56">
         <v>3</v>
       </c>
       <c r="B29" s="54"/>
-      <c r="C29" s="144"/>
-      <c r="D29" s="145"/>
+      <c r="C29" s="190"/>
+      <c r="D29" s="191"/>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
       <c r="G29" s="55"/>
@@ -9150,35 +9529,35 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="141" t="s">
+      <c r="C32" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="142"/>
-      <c r="E32" s="141" t="s">
+      <c r="D32" s="169"/>
+      <c r="E32" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="143"/>
+      <c r="F32" s="170"/>
       <c r="G32" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="183">
+    <row r="33" spans="1:7" ht="12" thickBot="1">
+      <c r="A33" s="203">
         <v>1</v>
       </c>
-      <c r="B33" s="184" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="186" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="187"/>
-      <c r="E33" s="186" t="s">
-        <v>143</v>
-      </c>
-      <c r="F33" s="187"/>
-      <c r="G33" s="184" t="s">
-        <v>113</v>
+      <c r="B33" s="204" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="205" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="206"/>
+      <c r="E33" s="205" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="206"/>
+      <c r="G33" s="204" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="12" thickBot="1">
@@ -9193,50 +9572,45 @@
       <c r="B36" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="141" t="s">
+      <c r="C36" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="142"/>
-      <c r="E36" s="141" t="s">
+      <c r="D36" s="169"/>
+      <c r="E36" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="143"/>
+      <c r="F36" s="170"/>
       <c r="G36" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="183">
+    <row r="37" spans="1:7" ht="12" thickBot="1">
+      <c r="A37" s="209">
         <v>1</v>
       </c>
-      <c r="B37" s="184" t="s">
-        <v>161</v>
-      </c>
-      <c r="C37" s="186" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="187"/>
-      <c r="E37" s="186" t="s">
-        <v>147</v>
-      </c>
-      <c r="F37" s="187"/>
-      <c r="G37" s="184" t="s">
-        <v>162</v>
+      <c r="B37" s="210" t="s">
+        <v>149</v>
+      </c>
+      <c r="C37" s="211" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="211"/>
+      <c r="E37" s="211" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="211"/>
+      <c r="G37" s="210" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -9244,12 +9618,17 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
@@ -9270,10 +9649,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -9285,10 +9664,10 @@
     <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.83203125" style="13"/>
-    <col min="11" max="11" width="17.6640625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="13" customWidth="1"/>
+    <col min="11" max="12" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" style="13" customWidth="1"/>
-    <col min="14" max="15" width="19.33203125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" style="13" customWidth="1"/>
     <col min="16" max="17" width="17" style="13" customWidth="1"/>
     <col min="18" max="18" width="15.5" style="13" customWidth="1"/>
     <col min="19" max="16384" width="8.83203125" style="13"/>
@@ -9303,110 +9682,110 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="162" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="167"/>
+      <c r="C2" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="146"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="162" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="163"/>
+      <c r="F2" s="145" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="149"/>
     </row>
     <row r="3" spans="1:19" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="168"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="164">
+      <c r="F3" s="150">
         <v>42026</v>
       </c>
-      <c r="G3" s="165"/>
+      <c r="G3" s="151"/>
     </row>
     <row r="4" spans="1:19" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="166" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="168"/>
+      <c r="C4" s="147" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="148"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="165"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="151"/>
     </row>
     <row r="5" spans="1:19" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="166" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="168"/>
+      <c r="C5" s="147" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="148"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="165"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="151"/>
     </row>
     <row r="6" spans="1:19" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="166" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="168"/>
+      <c r="C6" s="147" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="148"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="165"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="151"/>
     </row>
     <row r="7" spans="1:19" ht="13">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="152"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="158"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="B8" s="153"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="155"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="B9" s="156"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="155"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
     </row>
     <row r="10" spans="1:19" ht="12" thickBot="1">
-      <c r="B10" s="157"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="159"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="165"/>
     </row>
     <row r="12" spans="1:19" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -9431,47 +9810,39 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="128" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="128" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="N13" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="O13" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q13" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="128" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="14">
+      <c r="I13" s="241" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="240" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="240" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="240" t="s">
+        <v>143</v>
+      </c>
+      <c r="M13" s="240" t="s">
+        <v>150</v>
+      </c>
+      <c r="N13" s="220" t="s">
+        <v>132</v>
+      </c>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="69">
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>53</v>
@@ -9484,38 +9855,29 @@
         <v>50</v>
       </c>
       <c r="H14" s="87"/>
-      <c r="I14" s="13">
+      <c r="I14" s="245">
         <v>1</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N14" s="135" t="s">
-        <v>123</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="127">
+      <c r="J14" s="244" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" s="248">
         <v>41922.465277777781</v>
       </c>
-      <c r="Q14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="R14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="S14" s="13">
+      <c r="L14" s="242">
+        <v>41927.465277777781</v>
+      </c>
+      <c r="M14" s="246">
+        <v>3</v>
+      </c>
+      <c r="N14" s="254">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="14">
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
+      <c r="R14" s="127"/>
+    </row>
+    <row r="15" spans="1:19" ht="12" thickBot="1">
       <c r="A15" s="59">
         <f>A14+1</f>
         <v>2</v>
@@ -9524,10 +9886,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
@@ -9535,36 +9897,25 @@
       <c r="F15" s="67"/>
       <c r="G15" s="107"/>
       <c r="H15" s="87"/>
-      <c r="I15" s="13">
+      <c r="I15" s="236">
         <v>2</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N15" s="135" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="P15" s="127">
+      <c r="J15" s="237" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" s="249">
         <v>41922.46875</v>
       </c>
-      <c r="Q15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="R15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="S15" s="13">
-        <v>1</v>
-      </c>
+      <c r="L15" s="243"/>
+      <c r="M15" s="247">
+        <v>2</v>
+      </c>
+      <c r="N15" s="239">
+        <v>2</v>
+      </c>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+      <c r="R15" s="127"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="59">
@@ -9572,13 +9923,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
@@ -9593,13 +9944,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>0</v>
@@ -9613,10 +9964,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D18" s="65" t="s">
         <v>53</v>
@@ -9626,7 +9977,7 @@
       </c>
       <c r="F18" s="67"/>
       <c r="G18" s="107" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -9635,10 +9986,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D19" s="65" t="s">
         <v>53</v>
@@ -9685,17 +10036,17 @@
       <c r="F22" s="67"/>
       <c r="G22" s="106"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="59">
+    <row r="23" spans="1:7" ht="12" thickBot="1">
+      <c r="A23" s="70">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="106"/>
+      <c r="B23" s="186"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="187"/>
+      <c r="F23" s="188"/>
+      <c r="G23" s="189"/>
     </row>
     <row r="25" spans="1:7" ht="12" thickBot="1">
       <c r="A25" s="1" t="s">
@@ -9709,10 +10060,10 @@
       <c r="B26" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="148" t="s">
+      <c r="C26" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="149"/>
+      <c r="D26" s="153"/>
       <c r="E26" s="34" t="s">
         <v>33</v>
       </c>
@@ -9724,61 +10075,61 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="13">
-      <c r="A27" s="14">
+      <c r="A27" s="212">
         <v>1</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="188" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="189"/>
-      <c r="E27" s="46" t="s">
+      <c r="C27" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="167"/>
+      <c r="E27" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="46" t="s">
+      <c r="F27" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="202"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="57">
+      <c r="A28" s="15">
         <v>2</v>
       </c>
-      <c r="B28" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" s="192" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="193"/>
-      <c r="E28" s="52" t="s">
+      <c r="B28" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="174" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="175"/>
+      <c r="E28" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="184" t="s">
+      <c r="F28" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="G28" s="53"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:7" ht="12" thickBot="1">
-      <c r="A29" s="56">
+      <c r="A29" s="16">
         <v>3</v>
       </c>
-      <c r="B29" s="184" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="185" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="185"/>
-      <c r="E29" s="184" t="s">
+      <c r="B29" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="213" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="213"/>
+      <c r="E29" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="184" t="s">
+      <c r="F29" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="182"/>
+      <c r="G29" s="28"/>
     </row>
     <row r="31" spans="1:7" ht="12" thickBot="1">
       <c r="A31" s="1" t="s">
@@ -9792,54 +10143,54 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="141" t="s">
+      <c r="C32" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="142"/>
-      <c r="E32" s="141" t="s">
+      <c r="D32" s="169"/>
+      <c r="E32" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="143"/>
+      <c r="F32" s="170"/>
       <c r="G32" s="38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12" thickBot="1">
-      <c r="A33" s="183">
+    <row r="33" spans="1:7">
+      <c r="A33" s="208">
         <v>1</v>
       </c>
-      <c r="B33" s="184" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="186" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="187"/>
-      <c r="E33" s="186" t="s">
-        <v>125</v>
-      </c>
-      <c r="F33" s="187"/>
-      <c r="G33" s="184" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="183">
-        <v>1</v>
-      </c>
-      <c r="B34" s="184" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="186" t="s">
-        <v>162</v>
-      </c>
-      <c r="D34" s="187"/>
-      <c r="E34" s="186" t="s">
-        <v>143</v>
-      </c>
-      <c r="F34" s="187"/>
-      <c r="G34" s="184" t="s">
-        <v>113</v>
+      <c r="B33" s="201" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="194" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="195"/>
+      <c r="E33" s="194" t="s">
+        <v>115</v>
+      </c>
+      <c r="F33" s="195"/>
+      <c r="G33" s="216" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="12" thickBot="1">
+      <c r="A34" s="196">
+        <v>2</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" s="197" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34" s="198"/>
+      <c r="E34" s="197" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="198"/>
+      <c r="G34" s="217" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12" thickBot="1">
@@ -9854,31 +10205,37 @@
       <c r="B37" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="141" t="s">
+      <c r="C37" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="142"/>
-      <c r="E37" s="141" t="s">
+      <c r="D37" s="169"/>
+      <c r="E37" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="143"/>
+      <c r="F37" s="170"/>
       <c r="G37" s="38" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="38" spans="1:7" ht="12" thickBot="1">
+      <c r="A38" s="203"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="205"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="205"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="204"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
+  <mergeCells count="26">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="F5:G5"/>
@@ -9886,12 +10243,17 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
@@ -9912,10 +10274,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -9926,132 +10288,132 @@
     <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.83203125" style="13"/>
-    <col min="11" max="11" width="17.6640625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="13" customWidth="1"/>
-    <col min="14" max="15" width="19.33203125" style="13" customWidth="1"/>
-    <col min="16" max="17" width="17" style="13" customWidth="1"/>
-    <col min="18" max="18" width="15.5" style="13" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="13"/>
+    <col min="9" max="9" width="8.83203125" style="13"/>
+    <col min="10" max="11" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="13" customWidth="1"/>
+    <col min="15" max="16" width="17" style="13" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="13" customWidth="1"/>
+    <col min="18" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12" thickBot="1">
+    <row r="1" spans="1:18" ht="12" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13">
+    <row r="2" spans="1:18" ht="13">
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="162" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="167"/>
+      <c r="C2" s="145" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="146"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="162" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="163"/>
-    </row>
-    <row r="3" spans="1:19" ht="13">
+      <c r="F2" s="145" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="149"/>
+    </row>
+    <row r="3" spans="1:18" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="168"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="164">
+      <c r="F3" s="150">
         <v>42026</v>
       </c>
-      <c r="G3" s="165"/>
-    </row>
-    <row r="4" spans="1:19" ht="13">
+      <c r="G3" s="151"/>
+    </row>
+    <row r="4" spans="1:18" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="166" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="168"/>
+      <c r="C4" s="147" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="148"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="165"/>
-    </row>
-    <row r="5" spans="1:19" ht="13">
+      <c r="F4" s="147"/>
+      <c r="G4" s="151"/>
+    </row>
+    <row r="5" spans="1:18" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="166" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="168"/>
+      <c r="C5" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="148"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="165"/>
-    </row>
-    <row r="6" spans="1:19" ht="13">
+      <c r="F5" s="147"/>
+      <c r="G5" s="151"/>
+    </row>
+    <row r="6" spans="1:18" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="166" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" s="168"/>
+      <c r="C6" s="147" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="148"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="165"/>
-    </row>
-    <row r="7" spans="1:19" ht="13">
-      <c r="B7" s="150" t="s">
+      <c r="F6" s="147"/>
+      <c r="G6" s="151"/>
+    </row>
+    <row r="7" spans="1:18" ht="13">
+      <c r="B7" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="152"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="B8" s="153"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="155"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="B9" s="156"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="155"/>
-    </row>
-    <row r="10" spans="1:19" ht="12" thickBot="1">
-      <c r="B10" s="157"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="159"/>
-    </row>
-    <row r="12" spans="1:19" ht="12" thickBot="1">
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="158"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="B9" s="162"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
+    </row>
+    <row r="10" spans="1:18" ht="12" thickBot="1">
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="165"/>
+    </row>
+    <row r="12" spans="1:18" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="30" t="s">
         <v>0</v>
       </c>
@@ -10073,47 +10435,36 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="128" t="s">
-        <v>113</v>
-      </c>
-      <c r="J13" s="128" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="128" t="s">
-        <v>115</v>
-      </c>
-      <c r="L13" s="128"/>
-      <c r="M13" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="N13" s="128" t="s">
-        <v>120</v>
-      </c>
-      <c r="O13" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="P13" s="128" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q13" s="128" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13" s="128" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="14">
+      <c r="I13" s="241" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="240" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" s="240" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="240" t="s">
+        <v>159</v>
+      </c>
+      <c r="M13" s="220" t="s">
+        <v>132</v>
+      </c>
+      <c r="N13" s="128"/>
+      <c r="O13" s="128"/>
+      <c r="P13" s="128"/>
+      <c r="Q13" s="128"/>
+      <c r="R13" s="128"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="69">
         <v>1</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C14" s="64" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D14" s="65" t="s">
         <v>53</v>
@@ -10126,103 +10477,79 @@
         <v>50</v>
       </c>
       <c r="H14" s="87"/>
-      <c r="I14" s="13">
+      <c r="I14" s="233">
         <v>1</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N14" s="135" t="s">
-        <v>123</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="127">
+      <c r="J14" s="253">
         <v>41922.465277777781</v>
       </c>
-      <c r="Q14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="R14" s="127">
-        <v>41922.465277777781</v>
-      </c>
-      <c r="S14" s="13">
+      <c r="K14" s="253">
+        <v>41927.465277777781</v>
+      </c>
+      <c r="L14" s="253" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" s="254">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" ht="14">
+      <c r="O14" s="127"/>
+      <c r="P14" s="127"/>
+      <c r="Q14" s="127"/>
+    </row>
+    <row r="15" spans="1:18" ht="12" thickBot="1">
       <c r="A15" s="59">
         <f>A14+1</f>
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="107" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H15" s="87"/>
-      <c r="I15" s="13">
+      <c r="I15" s="236">
         <v>2</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="N15" s="135" t="s">
-        <v>122</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="P15" s="127">
+      <c r="J15" s="251">
         <v>41922.46875</v>
       </c>
-      <c r="Q15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="R15" s="127">
-        <v>41922.46875</v>
-      </c>
-      <c r="S15" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="K15" s="251">
+        <v>41927.46875</v>
+      </c>
+      <c r="L15" s="251" t="s">
+        <v>108</v>
+      </c>
+      <c r="M15" s="239">
+        <v>2</v>
+      </c>
+      <c r="O15" s="127"/>
+      <c r="P15" s="127"/>
+      <c r="Q15" s="127"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="59">
         <f t="shared" ref="A16:A24" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
@@ -10237,13 +10564,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>3</v>
@@ -10257,10 +10584,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D18" s="65" t="s">
         <v>53</v>
@@ -10355,10 +10682,10 @@
       <c r="B27" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="149"/>
+      <c r="D27" s="153"/>
       <c r="E27" s="34" t="s">
         <v>33</v>
       </c>
@@ -10370,50 +10697,50 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="13">
-      <c r="A28" s="14">
+      <c r="A28" s="212">
         <v>1</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="160" t="s">
-        <v>113</v>
-      </c>
-      <c r="D28" s="161"/>
-      <c r="E28" s="46" t="s">
+      <c r="C28" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="167"/>
+      <c r="E28" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="46" t="s">
+      <c r="F28" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="20"/>
+      <c r="G28" s="202"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="57">
+      <c r="A29" s="15">
         <v>2</v>
       </c>
-      <c r="B29" s="184" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" s="185" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="185"/>
-      <c r="E29" s="184" t="s">
+      <c r="B29" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="218" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="218"/>
+      <c r="E29" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="184" t="s">
+      <c r="F29" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="53"/>
+      <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:7" ht="12" thickBot="1">
       <c r="A30" s="56">
         <v>3</v>
       </c>
       <c r="B30" s="54"/>
-      <c r="C30" s="144"/>
-      <c r="D30" s="145"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="191"/>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
       <c r="G30" s="55"/>
@@ -10430,35 +10757,35 @@
       <c r="B33" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="141" t="s">
+      <c r="C33" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="142"/>
-      <c r="E33" s="141" t="s">
+      <c r="D33" s="169"/>
+      <c r="E33" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="143"/>
-      <c r="G33" s="38" t="s">
+      <c r="F33" s="170"/>
+      <c r="G33" s="137" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="183">
+    <row r="34" spans="1:7" ht="12" thickBot="1">
+      <c r="A34" s="214">
         <v>1</v>
       </c>
-      <c r="B34" s="184" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="186" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="187"/>
-      <c r="E34" s="186" t="s">
-        <v>125</v>
-      </c>
-      <c r="F34" s="187"/>
-      <c r="G34" s="184" t="s">
-        <v>113</v>
+      <c r="B34" s="215" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="205" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="206"/>
+      <c r="E34" s="205" t="s">
+        <v>115</v>
+      </c>
+      <c r="F34" s="206"/>
+      <c r="G34" s="219" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="12" thickBot="1">
@@ -10473,20 +10800,43 @@
       <c r="B37" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="141" t="s">
+      <c r="C37" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="142"/>
-      <c r="E37" s="141" t="s">
+      <c r="D37" s="169"/>
+      <c r="E37" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="143"/>
+      <c r="F37" s="170"/>
       <c r="G37" s="38" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="38" spans="1:7" ht="12" thickBot="1">
+      <c r="A38" s="203"/>
+      <c r="B38" s="204"/>
+      <c r="C38" s="205"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="205"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="204"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="C34:D34"/>
@@ -10497,18 +10847,6 @@
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="92" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
@@ -10555,103 +10893,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="167"/>
+      <c r="D2" s="146"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="162" t="s">
+      <c r="F2" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="163"/>
+      <c r="G2" s="149"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="168"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="166" t="s">
+      <c r="F3" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="165"/>
+      <c r="G3" s="151"/>
     </row>
     <row r="4" spans="1:11" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="168"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="165"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="151"/>
     </row>
     <row r="5" spans="1:11" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="166" t="s">
+      <c r="C5" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="168"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="165"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="151"/>
     </row>
     <row r="6" spans="1:11" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="166" t="s">
+      <c r="C6" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="168"/>
+      <c r="D6" s="148"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="165"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="151"/>
     </row>
     <row r="7" spans="1:11" ht="13">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="152"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="158"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="153"/>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="155"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="156"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="155"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
     </row>
     <row r="10" spans="1:11" ht="12" thickBot="1">
-      <c r="B10" s="157"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="159"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="165"/>
     </row>
     <row r="12" spans="1:11" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -10873,10 +11211,10 @@
       <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="148" t="s">
+      <c r="C24" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="149"/>
+      <c r="D24" s="153"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -10894,10 +11232,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="160" t="s">
+      <c r="C25" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="161"/>
+      <c r="D25" s="177"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -10911,10 +11249,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="171" t="s">
+      <c r="C26" s="180" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="172"/>
+      <c r="D26" s="181"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58" t="s">
         <v>3</v>
@@ -10933,14 +11271,14 @@
       <c r="B29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="141" t="s">
+      <c r="C29" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="142"/>
-      <c r="E29" s="141" t="s">
+      <c r="D29" s="169"/>
+      <c r="E29" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="143"/>
+      <c r="F29" s="170"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -10957,14 +11295,14 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="141" t="s">
+      <c r="C32" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="142"/>
-      <c r="E32" s="141" t="s">
+      <c r="D32" s="169"/>
+      <c r="E32" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="143"/>
+      <c r="F32" s="170"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
@@ -10974,20 +11312,29 @@
         <v>1</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="169" t="s">
+      <c r="C33" s="178" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="170"/>
-      <c r="E33" s="171" t="s">
+      <c r="D33" s="179"/>
+      <c r="E33" s="180" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="172"/>
+      <c r="F33" s="181"/>
       <c r="G33" s="28" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -11000,15 +11347,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11056,105 +11394,105 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="162" t="s">
+      <c r="C2" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="167"/>
+      <c r="D2" s="146"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="162" t="s">
+      <c r="F2" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="163"/>
+      <c r="G2" s="149"/>
     </row>
     <row r="3" spans="1:7" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="168"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="148"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="166" t="s">
+      <c r="F3" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="165"/>
+      <c r="G3" s="151"/>
     </row>
     <row r="4" spans="1:7" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="147" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="168"/>
+      <c r="D4" s="148"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="166"/>
-      <c r="G4" s="165"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="151"/>
     </row>
     <row r="5" spans="1:7" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="166" t="s">
+      <c r="C5" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="168"/>
+      <c r="D5" s="148"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="165"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="151"/>
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="166" t="s">
+      <c r="C6" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="168"/>
+      <c r="D6" s="148"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="165"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="151"/>
     </row>
     <row r="7" spans="1:7" ht="13">
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="151"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="151"/>
-      <c r="G7" s="152"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="158"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="153" t="s">
+      <c r="B8" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="154"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="155"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="161"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="156"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="155"/>
+      <c r="B9" s="162"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1">
-      <c r="B10" s="157"/>
-      <c r="C10" s="158"/>
-      <c r="D10" s="158"/>
-      <c r="E10" s="158"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="159"/>
+      <c r="B10" s="163"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="165"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -11259,10 +11597,10 @@
       <c r="B19" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="148" t="s">
+      <c r="C19" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="149"/>
+      <c r="D19" s="153"/>
       <c r="E19" s="34" t="s">
         <v>33</v>
       </c>
@@ -11280,10 +11618,10 @@
       <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="160" t="s">
+      <c r="C20" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="161"/>
+      <c r="D20" s="177"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
@@ -11297,10 +11635,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="169" t="s">
+      <c r="C21" s="178" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="170"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>3</v>
@@ -11319,14 +11657,14 @@
       <c r="B24" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="141" t="s">
+      <c r="C24" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="142"/>
-      <c r="E24" s="141" t="s">
+      <c r="D24" s="169"/>
+      <c r="E24" s="168" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="143"/>
+      <c r="F24" s="170"/>
       <c r="G24" s="38" t="s">
         <v>38</v>
       </c>
@@ -11343,14 +11681,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="141" t="s">
+      <c r="C27" s="168" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="142"/>
-      <c r="E27" s="141" t="s">
+      <c r="D27" s="169"/>
+      <c r="E27" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="143"/>
+      <c r="F27" s="170"/>
       <c r="G27" s="38" t="s">
         <v>39</v>
       </c>
@@ -11360,14 +11698,23 @@
         <v>1</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="171"/>
-      <c r="F28" s="172"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="181"/>
       <c r="G28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
@@ -11380,15 +11727,6 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B7:G7"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TRILE.xlsx
+++ b/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TRILE.xlsx
@@ -4,16 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="34560" windowHeight="17020" tabRatio="818" activeTab="6"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="34560" windowHeight="17020" tabRatio="818" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
     <sheet name="Update History" sheetId="12" r:id="rId2"/>
     <sheet name="Table List" sheetId="4" r:id="rId3"/>
-    <sheet name="_users" sheetId="5" r:id="rId4"/>
-    <sheet name="_posts" sheetId="40" r:id="rId5"/>
-    <sheet name="_comments" sheetId="39" r:id="rId6"/>
-    <sheet name="_tokens" sheetId="38" r:id="rId7"/>
+    <sheet name="users" sheetId="5" r:id="rId4"/>
+    <sheet name="posts" sheetId="40" r:id="rId5"/>
+    <sheet name="comments" sheetId="39" r:id="rId6"/>
+    <sheet name="tokens" sheetId="38" r:id="rId7"/>
     <sheet name="edition" sheetId="36" state="hidden" r:id="rId8"/>
     <sheet name="x_edition_version" sheetId="37" state="hidden" r:id="rId9"/>
     <sheet name="ranking(deleted)" sheetId="20" state="hidden" r:id="rId10"/>
@@ -23,108 +23,108 @@
   </externalReferences>
   <definedNames>
     <definedName name="⑫画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑫画面" localSheetId="7">#REF!</definedName>
     <definedName name="⑫画面" localSheetId="4">#REF!</definedName>
+    <definedName name="⑫画面" localSheetId="9">#REF!</definedName>
     <definedName name="⑫画面" localSheetId="6">#REF!</definedName>
-    <definedName name="⑫画面" localSheetId="7">#REF!</definedName>
-    <definedName name="⑫画面" localSheetId="9">#REF!</definedName>
     <definedName name="⑫画面" localSheetId="8">#REF!</definedName>
     <definedName name="⑫画面">#REF!</definedName>
     <definedName name="②画面" localSheetId="5">#REF!</definedName>
+    <definedName name="②画面" localSheetId="7">#REF!</definedName>
     <definedName name="②画面" localSheetId="4">#REF!</definedName>
+    <definedName name="②画面" localSheetId="9">#REF!</definedName>
     <definedName name="②画面" localSheetId="6">#REF!</definedName>
-    <definedName name="②画面" localSheetId="7">#REF!</definedName>
-    <definedName name="②画面" localSheetId="9">#REF!</definedName>
     <definedName name="②画面" localSheetId="8">#REF!</definedName>
     <definedName name="②画面">#REF!</definedName>
     <definedName name="③画面" localSheetId="5">#REF!</definedName>
+    <definedName name="③画面" localSheetId="7">#REF!</definedName>
     <definedName name="③画面" localSheetId="4">#REF!</definedName>
+    <definedName name="③画面" localSheetId="9">#REF!</definedName>
     <definedName name="③画面" localSheetId="6">#REF!</definedName>
-    <definedName name="③画面" localSheetId="7">#REF!</definedName>
-    <definedName name="③画面" localSheetId="9">#REF!</definedName>
     <definedName name="③画面" localSheetId="8">#REF!</definedName>
     <definedName name="③画面">#REF!</definedName>
     <definedName name="⑤画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="7">#REF!</definedName>
     <definedName name="⑤画面" localSheetId="4">#REF!</definedName>
+    <definedName name="⑤画面" localSheetId="9">#REF!</definedName>
     <definedName name="⑤画面" localSheetId="6">#REF!</definedName>
-    <definedName name="⑤画面" localSheetId="7">#REF!</definedName>
-    <definedName name="⑤画面" localSheetId="9">#REF!</definedName>
     <definedName name="⑤画面" localSheetId="8">#REF!</definedName>
     <definedName name="⑤画面">#REF!</definedName>
     <definedName name="⑧画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="7">#REF!</definedName>
     <definedName name="⑧画面" localSheetId="4">#REF!</definedName>
+    <definedName name="⑧画面" localSheetId="9">#REF!</definedName>
     <definedName name="⑧画面" localSheetId="6">#REF!</definedName>
-    <definedName name="⑧画面" localSheetId="7">#REF!</definedName>
-    <definedName name="⑧画面" localSheetId="9">#REF!</definedName>
     <definedName name="⑧画面" localSheetId="8">#REF!</definedName>
     <definedName name="⑧画面">#REF!</definedName>
     <definedName name="⑨画面" localSheetId="5">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="7">#REF!</definedName>
     <definedName name="⑨画面" localSheetId="4">#REF!</definedName>
+    <definedName name="⑨画面" localSheetId="9">#REF!</definedName>
     <definedName name="⑨画面" localSheetId="6">#REF!</definedName>
-    <definedName name="⑨画面" localSheetId="7">#REF!</definedName>
-    <definedName name="⑨画面" localSheetId="9">#REF!</definedName>
     <definedName name="⑨画面" localSheetId="8">#REF!</definedName>
     <definedName name="⑨画面">#REF!</definedName>
     <definedName name="AAAAAA" localSheetId="5">#REF!</definedName>
+    <definedName name="AAAAAA" localSheetId="7">#REF!</definedName>
     <definedName name="AAAAAA" localSheetId="4">#REF!</definedName>
     <definedName name="AAAAAA" localSheetId="6">#REF!</definedName>
-    <definedName name="AAAAAA" localSheetId="7">#REF!</definedName>
     <definedName name="AAAAAA" localSheetId="8">#REF!</definedName>
     <definedName name="AAAAAA">#REF!</definedName>
     <definedName name="as" localSheetId="5">#REF!</definedName>
+    <definedName name="as" localSheetId="7">#REF!</definedName>
     <definedName name="as" localSheetId="4">#REF!</definedName>
     <definedName name="as" localSheetId="6">#REF!</definedName>
-    <definedName name="as" localSheetId="7">#REF!</definedName>
     <definedName name="as" localSheetId="8">#REF!</definedName>
     <definedName name="as">#REF!</definedName>
     <definedName name="ｄｄｄｄ" localSheetId="5">#REF!</definedName>
+    <definedName name="ｄｄｄｄ" localSheetId="7">#REF!</definedName>
     <definedName name="ｄｄｄｄ" localSheetId="4">#REF!</definedName>
+    <definedName name="ｄｄｄｄ" localSheetId="9">#REF!</definedName>
     <definedName name="ｄｄｄｄ" localSheetId="6">#REF!</definedName>
-    <definedName name="ｄｄｄｄ" localSheetId="7">#REF!</definedName>
-    <definedName name="ｄｄｄｄ" localSheetId="9">#REF!</definedName>
     <definedName name="ｄｄｄｄ" localSheetId="8">#REF!</definedName>
     <definedName name="ｄｄｄｄ">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ" localSheetId="5">#REF!</definedName>
+    <definedName name="ｄｄｄｄｄ" localSheetId="7">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ" localSheetId="4">#REF!</definedName>
+    <definedName name="ｄｄｄｄｄ" localSheetId="9">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ" localSheetId="6">#REF!</definedName>
-    <definedName name="ｄｄｄｄｄ" localSheetId="7">#REF!</definedName>
-    <definedName name="ｄｄｄｄｄ" localSheetId="9">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ" localSheetId="8">#REF!</definedName>
     <definedName name="ｄｄｄｄｄ">#REF!</definedName>
     <definedName name="MySQL_DataType">[1]データタイプ!$B$2:$B$36</definedName>
     <definedName name="Oracle_DataType">[1]データタイプ!$A$2:$A$24</definedName>
     <definedName name="あ" localSheetId="5">#REF!</definedName>
+    <definedName name="あ" localSheetId="7">#REF!</definedName>
     <definedName name="あ" localSheetId="4">#REF!</definedName>
+    <definedName name="あ" localSheetId="9">#REF!</definedName>
     <definedName name="あ" localSheetId="6">#REF!</definedName>
-    <definedName name="あ" localSheetId="7">#REF!</definedName>
-    <definedName name="あ" localSheetId="9">#REF!</definedName>
     <definedName name="あ" localSheetId="8">#REF!</definedName>
     <definedName name="あ">#REF!</definedName>
     <definedName name="ステータス" localSheetId="5">#REF!</definedName>
+    <definedName name="ステータス" localSheetId="7">#REF!</definedName>
     <definedName name="ステータス" localSheetId="4">#REF!</definedName>
+    <definedName name="ステータス" localSheetId="9">#REF!</definedName>
     <definedName name="ステータス" localSheetId="6">#REF!</definedName>
-    <definedName name="ステータス" localSheetId="7">#REF!</definedName>
-    <definedName name="ステータス" localSheetId="9">#REF!</definedName>
     <definedName name="ステータス" localSheetId="8">#REF!</definedName>
     <definedName name="ステータス">#REF!</definedName>
     <definedName name="画面一覧" localSheetId="5">#REF!</definedName>
+    <definedName name="画面一覧" localSheetId="7">#REF!</definedName>
     <definedName name="画面一覧" localSheetId="4">#REF!</definedName>
+    <definedName name="画面一覧" localSheetId="9">#REF!</definedName>
     <definedName name="画面一覧" localSheetId="6">#REF!</definedName>
-    <definedName name="画面一覧" localSheetId="7">#REF!</definedName>
-    <definedName name="画面一覧" localSheetId="9">#REF!</definedName>
     <definedName name="画面一覧" localSheetId="8">#REF!</definedName>
     <definedName name="画面一覧">#REF!</definedName>
     <definedName name="項番17" localSheetId="5">#REF!</definedName>
+    <definedName name="項番17" localSheetId="7">#REF!</definedName>
     <definedName name="項番17" localSheetId="4">#REF!</definedName>
+    <definedName name="項番17" localSheetId="9">#REF!</definedName>
     <definedName name="項番17" localSheetId="6">#REF!</definedName>
-    <definedName name="項番17" localSheetId="7">#REF!</definedName>
-    <definedName name="項番17" localSheetId="9">#REF!</definedName>
     <definedName name="項番17" localSheetId="8">#REF!</definedName>
     <definedName name="項番17">#REF!</definedName>
     <definedName name="項番3" localSheetId="5">#REF!</definedName>
+    <definedName name="項番3" localSheetId="7">#REF!</definedName>
     <definedName name="項番3" localSheetId="4">#REF!</definedName>
+    <definedName name="項番3" localSheetId="9">#REF!</definedName>
     <definedName name="項番3" localSheetId="6">#REF!</definedName>
-    <definedName name="項番3" localSheetId="7">#REF!</definedName>
-    <definedName name="項番3" localSheetId="9">#REF!</definedName>
     <definedName name="項番3" localSheetId="8">#REF!</definedName>
     <definedName name="項番3">#REF!</definedName>
   </definedNames>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="189">
   <si>
     <t>No</t>
   </si>
@@ -498,9 +498,6 @@
     <t>avatar_link</t>
   </si>
   <si>
-    <t>user_name</t>
-  </si>
-  <si>
     <t>VARCHAR(64)</t>
   </si>
   <si>
@@ -531,9 +528,6 @@
     <t>TIMESTAMP</t>
   </si>
   <si>
-    <t>_users</t>
-  </si>
-  <si>
     <t>fk_posts_users</t>
   </si>
   <si>
@@ -585,9 +579,6 @@
     <t>UserID</t>
   </si>
   <si>
-    <t>VARCHAR(50)</t>
-  </si>
-  <si>
     <t>VARCHAR(1024)</t>
   </si>
   <si>
@@ -600,9 +591,6 @@
     <t>Comments Info</t>
   </si>
   <si>
-    <t>PartnerID</t>
-  </si>
-  <si>
     <t>ID of Post</t>
   </si>
   <si>
@@ -667,6 +655,60 @@
   </si>
   <si>
     <t>I like it</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>tokens</t>
+  </si>
+  <si>
+    <t>PostID</t>
+  </si>
+  <si>
+    <t>post_id</t>
+  </si>
+  <si>
+    <t>CommenttID</t>
+  </si>
+  <si>
+    <t>comment_id</t>
+  </si>
+  <si>
+    <t>ID of parent comment(if sub comment)</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>VARCHAR(128)</t>
+  </si>
+  <si>
+    <t>Publictime</t>
+  </si>
+  <si>
+    <t>public_time</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>fk_comments_comments</t>
+  </si>
+  <si>
+    <t>user</t>
   </si>
 </sst>
 </file>
@@ -885,7 +927,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="79">
+  <borders count="82">
     <border>
       <left/>
       <right/>
@@ -1927,8 +1969,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="511">
+  <cellStyleXfs count="532">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3459,8 +3536,71 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3842,6 +3982,189 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="22" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="22" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="22" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="14" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="22" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3852,6 +4175,24 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3930,6 +4271,12 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3939,17 +4286,26 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3963,6 +4319,12 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3975,215 +4337,8 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="14" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="14" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="22" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="22" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="14" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="14" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="22" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="22" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="14" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="22" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="511">
+  <cellStyles count="532">
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -4687,6 +4842,27 @@
     <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="509" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="511" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="513" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="515" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="517" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="519" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="521" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="523" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="525" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="527" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ハイパーリンク 2" xfId="4"/>
@@ -5940,29 +6116,29 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="141"/>
-      <c r="T13" s="141"/>
-      <c r="U13" s="141"/>
-      <c r="V13" s="141"/>
-      <c r="W13" s="141"/>
-      <c r="X13" s="141"/>
-      <c r="Y13" s="141"/>
-      <c r="Z13" s="141"/>
-      <c r="AA13" s="141"/>
-      <c r="AB13" s="141"/>
-      <c r="AC13" s="141"/>
-      <c r="AD13" s="141"/>
-      <c r="AE13" s="141"/>
-      <c r="AF13" s="141"/>
-      <c r="AG13" s="141"/>
-      <c r="AH13" s="141"/>
-      <c r="AI13" s="141"/>
-      <c r="AJ13" s="141"/>
-      <c r="AK13" s="141"/>
+      <c r="O13" s="202"/>
+      <c r="P13" s="202"/>
+      <c r="Q13" s="202"/>
+      <c r="R13" s="202"/>
+      <c r="S13" s="202"/>
+      <c r="T13" s="202"/>
+      <c r="U13" s="202"/>
+      <c r="V13" s="202"/>
+      <c r="W13" s="202"/>
+      <c r="X13" s="202"/>
+      <c r="Y13" s="202"/>
+      <c r="Z13" s="202"/>
+      <c r="AA13" s="202"/>
+      <c r="AB13" s="202"/>
+      <c r="AC13" s="202"/>
+      <c r="AD13" s="202"/>
+      <c r="AE13" s="202"/>
+      <c r="AF13" s="202"/>
+      <c r="AG13" s="202"/>
+      <c r="AH13" s="202"/>
+      <c r="AI13" s="202"/>
+      <c r="AJ13" s="202"/>
+      <c r="AK13" s="202"/>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -5994,29 +6170,29 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="141"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="141"/>
-      <c r="T14" s="141"/>
-      <c r="U14" s="141"/>
-      <c r="V14" s="141"/>
-      <c r="W14" s="141"/>
-      <c r="X14" s="141"/>
-      <c r="Y14" s="141"/>
-      <c r="Z14" s="141"/>
-      <c r="AA14" s="141"/>
-      <c r="AB14" s="141"/>
-      <c r="AC14" s="141"/>
-      <c r="AD14" s="141"/>
-      <c r="AE14" s="141"/>
-      <c r="AF14" s="141"/>
-      <c r="AG14" s="141"/>
-      <c r="AH14" s="141"/>
-      <c r="AI14" s="141"/>
-      <c r="AJ14" s="141"/>
-      <c r="AK14" s="141"/>
+      <c r="O14" s="202"/>
+      <c r="P14" s="202"/>
+      <c r="Q14" s="202"/>
+      <c r="R14" s="202"/>
+      <c r="S14" s="202"/>
+      <c r="T14" s="202"/>
+      <c r="U14" s="202"/>
+      <c r="V14" s="202"/>
+      <c r="W14" s="202"/>
+      <c r="X14" s="202"/>
+      <c r="Y14" s="202"/>
+      <c r="Z14" s="202"/>
+      <c r="AA14" s="202"/>
+      <c r="AB14" s="202"/>
+      <c r="AC14" s="202"/>
+      <c r="AD14" s="202"/>
+      <c r="AE14" s="202"/>
+      <c r="AF14" s="202"/>
+      <c r="AG14" s="202"/>
+      <c r="AH14" s="202"/>
+      <c r="AI14" s="202"/>
+      <c r="AJ14" s="202"/>
+      <c r="AK14" s="202"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
@@ -6044,43 +6220,43 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="142" t="s">
+      <c r="K15" s="203" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="142"/>
-      <c r="M15" s="142"/>
-      <c r="N15" s="142"/>
-      <c r="O15" s="142"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="142"/>
-      <c r="R15" s="142"/>
-      <c r="S15" s="142"/>
-      <c r="T15" s="142"/>
-      <c r="U15" s="142"/>
-      <c r="V15" s="142"/>
-      <c r="W15" s="142"/>
-      <c r="X15" s="142"/>
-      <c r="Y15" s="142"/>
-      <c r="Z15" s="142"/>
-      <c r="AA15" s="142"/>
-      <c r="AB15" s="142"/>
-      <c r="AC15" s="142"/>
-      <c r="AD15" s="142"/>
-      <c r="AE15" s="142"/>
-      <c r="AF15" s="142"/>
-      <c r="AG15" s="142"/>
-      <c r="AH15" s="142"/>
-      <c r="AI15" s="142"/>
-      <c r="AJ15" s="142"/>
-      <c r="AK15" s="142"/>
-      <c r="AL15" s="142"/>
-      <c r="AM15" s="142"/>
-      <c r="AN15" s="142"/>
-      <c r="AO15" s="142"/>
-      <c r="AP15" s="142"/>
-      <c r="AQ15" s="142"/>
-      <c r="AR15" s="142"/>
-      <c r="AS15" s="142"/>
+      <c r="L15" s="203"/>
+      <c r="M15" s="203"/>
+      <c r="N15" s="203"/>
+      <c r="O15" s="203"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="203"/>
+      <c r="S15" s="203"/>
+      <c r="T15" s="203"/>
+      <c r="U15" s="203"/>
+      <c r="V15" s="203"/>
+      <c r="W15" s="203"/>
+      <c r="X15" s="203"/>
+      <c r="Y15" s="203"/>
+      <c r="Z15" s="203"/>
+      <c r="AA15" s="203"/>
+      <c r="AB15" s="203"/>
+      <c r="AC15" s="203"/>
+      <c r="AD15" s="203"/>
+      <c r="AE15" s="203"/>
+      <c r="AF15" s="203"/>
+      <c r="AG15" s="203"/>
+      <c r="AH15" s="203"/>
+      <c r="AI15" s="203"/>
+      <c r="AJ15" s="203"/>
+      <c r="AK15" s="203"/>
+      <c r="AL15" s="203"/>
+      <c r="AM15" s="203"/>
+      <c r="AN15" s="203"/>
+      <c r="AO15" s="203"/>
+      <c r="AP15" s="203"/>
+      <c r="AQ15" s="203"/>
+      <c r="AR15" s="203"/>
+      <c r="AS15" s="203"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -6100,41 +6276,41 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="142"/>
-      <c r="N16" s="142"/>
-      <c r="O16" s="142"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="142"/>
-      <c r="R16" s="142"/>
-      <c r="S16" s="142"/>
-      <c r="T16" s="142"/>
-      <c r="U16" s="142"/>
-      <c r="V16" s="142"/>
-      <c r="W16" s="142"/>
-      <c r="X16" s="142"/>
-      <c r="Y16" s="142"/>
-      <c r="Z16" s="142"/>
-      <c r="AA16" s="142"/>
-      <c r="AB16" s="142"/>
-      <c r="AC16" s="142"/>
-      <c r="AD16" s="142"/>
-      <c r="AE16" s="142"/>
-      <c r="AF16" s="142"/>
-      <c r="AG16" s="142"/>
-      <c r="AH16" s="142"/>
-      <c r="AI16" s="142"/>
-      <c r="AJ16" s="142"/>
-      <c r="AK16" s="142"/>
-      <c r="AL16" s="142"/>
-      <c r="AM16" s="142"/>
-      <c r="AN16" s="142"/>
-      <c r="AO16" s="142"/>
-      <c r="AP16" s="142"/>
-      <c r="AQ16" s="142"/>
-      <c r="AR16" s="142"/>
-      <c r="AS16" s="142"/>
+      <c r="K16" s="203"/>
+      <c r="L16" s="203"/>
+      <c r="M16" s="203"/>
+      <c r="N16" s="203"/>
+      <c r="O16" s="203"/>
+      <c r="P16" s="203"/>
+      <c r="Q16" s="203"/>
+      <c r="R16" s="203"/>
+      <c r="S16" s="203"/>
+      <c r="T16" s="203"/>
+      <c r="U16" s="203"/>
+      <c r="V16" s="203"/>
+      <c r="W16" s="203"/>
+      <c r="X16" s="203"/>
+      <c r="Y16" s="203"/>
+      <c r="Z16" s="203"/>
+      <c r="AA16" s="203"/>
+      <c r="AB16" s="203"/>
+      <c r="AC16" s="203"/>
+      <c r="AD16" s="203"/>
+      <c r="AE16" s="203"/>
+      <c r="AF16" s="203"/>
+      <c r="AG16" s="203"/>
+      <c r="AH16" s="203"/>
+      <c r="AI16" s="203"/>
+      <c r="AJ16" s="203"/>
+      <c r="AK16" s="203"/>
+      <c r="AL16" s="203"/>
+      <c r="AM16" s="203"/>
+      <c r="AN16" s="203"/>
+      <c r="AO16" s="203"/>
+      <c r="AP16" s="203"/>
+      <c r="AQ16" s="203"/>
+      <c r="AR16" s="203"/>
+      <c r="AS16" s="203"/>
       <c r="AT16" s="4"/>
       <c r="AU16" s="4"/>
       <c r="AV16" s="4"/>
@@ -6723,14 +6899,14 @@
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="7"/>
-      <c r="AN27" s="143">
+      <c r="AN27" s="204">
         <v>42026</v>
       </c>
-      <c r="AO27" s="143"/>
-      <c r="AP27" s="143"/>
-      <c r="AQ27" s="143"/>
-      <c r="AR27" s="143"/>
-      <c r="AS27" s="143"/>
+      <c r="AO27" s="204"/>
+      <c r="AP27" s="204"/>
+      <c r="AQ27" s="204"/>
+      <c r="AR27" s="204"/>
+      <c r="AS27" s="204"/>
       <c r="AT27" s="12"/>
       <c r="AU27" s="12"/>
       <c r="AV27" s="12"/>
@@ -7220,103 +7396,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="146"/>
+      <c r="D2" s="213"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="184" t="s">
+      <c r="F2" s="258" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="185"/>
+      <c r="G2" s="259"/>
     </row>
     <row r="3" spans="1:14" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="150" t="s">
+      <c r="F3" s="217" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="151"/>
+      <c r="G3" s="218"/>
     </row>
     <row r="4" spans="1:14" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="148"/>
+      <c r="D4" s="215"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="151"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="218"/>
     </row>
     <row r="5" spans="1:14" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="214" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="148"/>
+      <c r="D5" s="215"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="151"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="218"/>
     </row>
     <row r="6" spans="1:14" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="148"/>
+      <c r="D6" s="215"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="151"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="218"/>
     </row>
     <row r="7" spans="1:14" ht="13">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="158"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="225"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
+      <c r="B8" s="226"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="228"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="162"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="228"/>
     </row>
     <row r="10" spans="1:14" ht="12" thickBot="1">
-      <c r="B10" s="163"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="165"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="231"/>
+      <c r="G10" s="232"/>
     </row>
     <row r="11" spans="1:14">
       <c r="H11" s="87"/>
@@ -7532,10 +7708,10 @@
       <c r="B21" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="152" t="s">
+      <c r="C21" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="153"/>
+      <c r="D21" s="220"/>
       <c r="E21" s="34" t="s">
         <v>33</v>
       </c>
@@ -7559,10 +7735,10 @@
       <c r="B22" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="176" t="s">
+      <c r="C22" s="254" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="177"/>
+      <c r="D22" s="255"/>
       <c r="E22" s="46" t="s">
         <v>3</v>
       </c>
@@ -7582,10 +7758,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="171" t="s">
+      <c r="C23" s="240" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="172"/>
+      <c r="D23" s="241"/>
       <c r="E23" s="52"/>
       <c r="F23" s="52" t="s">
         <v>3</v>
@@ -7603,10 +7779,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="26"/>
-      <c r="C24" s="178" t="s">
+      <c r="C24" s="250" t="s">
         <v>68</v>
       </c>
-      <c r="D24" s="179"/>
+      <c r="D24" s="251"/>
       <c r="E24" s="45"/>
       <c r="F24" s="45" t="s">
         <v>3</v>
@@ -7645,14 +7821,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="168" t="s">
+      <c r="C27" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="169"/>
-      <c r="E27" s="168" t="s">
+      <c r="D27" s="236"/>
+      <c r="E27" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="170"/>
+      <c r="F27" s="237"/>
       <c r="G27" s="38" t="s">
         <v>38</v>
       </c>
@@ -7689,14 +7865,14 @@
       <c r="B30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="168" t="s">
+      <c r="C30" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="169"/>
-      <c r="E30" s="168" t="s">
+      <c r="D30" s="236"/>
+      <c r="E30" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="170"/>
+      <c r="F30" s="237"/>
       <c r="G30" s="38" t="s">
         <v>39</v>
       </c>
@@ -7712,14 +7888,14 @@
         <v>1</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="176" t="s">
+      <c r="C31" s="254" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="177"/>
-      <c r="E31" s="171" t="s">
+      <c r="D31" s="255"/>
+      <c r="E31" s="240" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="172"/>
+      <c r="F31" s="241"/>
       <c r="G31" s="53" t="s">
         <v>76</v>
       </c>
@@ -7735,14 +7911,14 @@
         <v>2</v>
       </c>
       <c r="B32" s="26"/>
-      <c r="C32" s="182" t="s">
+      <c r="C32" s="256" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="183"/>
-      <c r="E32" s="180" t="s">
+      <c r="D32" s="257"/>
+      <c r="E32" s="252" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="181"/>
+      <c r="F32" s="253"/>
       <c r="G32" s="55" t="s">
         <v>52</v>
       </c>
@@ -8137,11 +8313,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" thickBot="1">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
     </row>
     <row r="2" spans="1:3" ht="12" thickBot="1">
       <c r="A2" s="118" t="s">
@@ -8171,10 +8347,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="123" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" s="140" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14">
@@ -8183,10 +8359,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="123" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C5" s="140" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14">
@@ -8195,10 +8371,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8409,8 +8585,8 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="N15" activeCellId="1" sqref="N14 N15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -8423,11 +8599,11 @@
     <col min="8" max="8" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" style="13" customWidth="1"/>
     <col min="10" max="10" width="8.83203125" style="13"/>
-    <col min="11" max="11" width="17.6640625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" style="13" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="13" customWidth="1"/>
-    <col min="14" max="14" width="28" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" style="13" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="13" customWidth="1"/>
+    <col min="13" max="13" width="28" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="13" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="13" customWidth="1"/>
     <col min="16" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
@@ -8440,103 +8616,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="146"/>
+      <c r="D2" s="213"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="145" t="s">
+      <c r="F2" s="212" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="149"/>
+      <c r="G2" s="216"/>
     </row>
     <row r="3" spans="1:15" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="150">
+      <c r="F3" s="217">
         <v>42026</v>
       </c>
-      <c r="G3" s="151"/>
+      <c r="G3" s="218"/>
     </row>
     <row r="4" spans="1:15" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="214" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="148"/>
+      <c r="D4" s="215"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="151"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="218"/>
     </row>
     <row r="5" spans="1:15" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="214" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="148"/>
+      <c r="D5" s="215"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="151"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="218"/>
     </row>
     <row r="6" spans="1:15" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="147" t="s">
-        <v>129</v>
-      </c>
-      <c r="D6" s="148"/>
+      <c r="C6" s="214" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="215"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="151"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="218"/>
     </row>
     <row r="7" spans="1:15" ht="13">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="158"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="225"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
+      <c r="B8" s="226"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="228"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="B9" s="162"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="228"/>
     </row>
     <row r="10" spans="1:15" ht="12" thickBot="1">
-      <c r="B10" s="163"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="165"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="231"/>
+      <c r="G10" s="232"/>
     </row>
     <row r="12" spans="1:15" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -8568,26 +8744,26 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="230" t="s">
+      <c r="I13" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="228" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" s="228" t="s">
+      <c r="J13" s="168" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="168" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" s="168" t="s">
+        <v>123</v>
+      </c>
+      <c r="M13" s="168" t="s">
+        <v>159</v>
+      </c>
+      <c r="N13" s="168" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" s="195" t="s">
         <v>117</v>
-      </c>
-      <c r="L13" s="228" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" s="228" t="s">
-        <v>124</v>
-      </c>
-      <c r="N13" s="228" t="s">
-        <v>163</v>
-      </c>
-      <c r="O13" s="229" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -8611,25 +8787,25 @@
         <v>50</v>
       </c>
       <c r="H14" s="87"/>
-      <c r="I14" s="212">
+      <c r="I14" s="156">
         <v>1</v>
       </c>
-      <c r="J14" s="192" t="s">
+      <c r="J14" s="145" t="s">
         <v>106</v>
       </c>
-      <c r="K14" s="223"/>
-      <c r="L14" s="223" t="s">
-        <v>168</v>
-      </c>
-      <c r="M14" s="223" t="s">
-        <v>169</v>
-      </c>
-      <c r="N14" s="223" t="s">
+      <c r="K14" s="165" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" s="165" t="s">
+        <v>165</v>
+      </c>
+      <c r="M14" s="165" t="s">
         <v>107</v>
       </c>
-      <c r="O14" s="224">
+      <c r="N14" s="187">
         <v>41922.465277777781</v>
       </c>
+      <c r="O14" s="196"/>
     </row>
     <row r="15" spans="1:15" ht="12" thickBot="1">
       <c r="A15" s="59">
@@ -8640,10 +8816,10 @@
         <v>103</v>
       </c>
       <c r="C15" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="65" t="s">
         <v>118</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>119</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
@@ -8656,23 +8832,23 @@
       <c r="I15" s="56">
         <v>2</v>
       </c>
-      <c r="J15" s="225" t="s">
-        <v>164</v>
-      </c>
-      <c r="K15" s="226" t="s">
-        <v>165</v>
-      </c>
-      <c r="L15" s="226" t="s">
-        <v>166</v>
-      </c>
-      <c r="M15" s="226" t="s">
-        <v>167</v>
-      </c>
-      <c r="N15" s="226" t="s">
+      <c r="J15" s="166" t="s">
+        <v>160</v>
+      </c>
+      <c r="K15" s="167" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" s="167" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" s="167" t="s">
         <v>108</v>
       </c>
-      <c r="O15" s="227">
+      <c r="N15" s="188">
         <v>41922.46875</v>
+      </c>
+      <c r="O15" s="197" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -8681,19 +8857,21 @@
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E16" s="66" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" s="67"/>
-      <c r="G16" s="117"/>
+      <c r="G16" s="107" t="s">
+        <v>104</v>
+      </c>
       <c r="H16" s="87"/>
     </row>
     <row r="17" spans="1:7">
@@ -8702,13 +8880,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>122</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="D17" s="129" t="s">
+        <v>118</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>3</v>
@@ -8724,20 +8902,20 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="D18" s="129" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F18" s="67"/>
-      <c r="G18" s="107" t="s">
-        <v>104</v>
+      <c r="G18" s="106" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -8746,21 +8924,19 @@
         <v>6</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>163</v>
+        <v>126</v>
       </c>
       <c r="D19" s="129" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="E19" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F19" s="67"/>
-      <c r="G19" s="106" t="s">
-        <v>125</v>
-      </c>
+      <c r="G19" s="106"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="59">
@@ -8768,19 +8944,19 @@
         <v>7</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="D20" s="129" t="s">
-        <v>128</v>
+        <v>117</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>119</v>
       </c>
       <c r="E20" s="66" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20" s="67"/>
-      <c r="G20" s="106"/>
+      <c r="G20" s="117"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="59">
@@ -8811,12 +8987,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="186"/>
+      <c r="B23" s="141"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="189"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="144"/>
     </row>
     <row r="25" spans="1:7" ht="12" thickBot="1">
       <c r="A25" s="1" t="s">
@@ -8830,10 +9006,10 @@
       <c r="B26" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="152" t="s">
+      <c r="C26" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="153"/>
+      <c r="D26" s="220"/>
       <c r="E26" s="34" t="s">
         <v>33</v>
       </c>
@@ -8851,10 +9027,10 @@
       <c r="B27" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="166" t="s">
+      <c r="C27" s="233" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="167"/>
+      <c r="D27" s="234"/>
       <c r="E27" s="46" t="s">
         <v>3</v>
       </c>
@@ -8868,8 +9044,8 @@
         <v>2</v>
       </c>
       <c r="B28" s="22"/>
-      <c r="C28" s="171"/>
-      <c r="D28" s="172"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="241"/>
       <c r="E28" s="44"/>
       <c r="F28" s="44"/>
       <c r="G28" s="24"/>
@@ -8879,8 +9055,8 @@
         <v>3</v>
       </c>
       <c r="B29" s="54"/>
-      <c r="C29" s="190"/>
-      <c r="D29" s="191"/>
+      <c r="C29" s="238"/>
+      <c r="D29" s="239"/>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
       <c r="G29" s="55"/>
@@ -8897,26 +9073,26 @@
       <c r="B32" s="138" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="154" t="s">
+      <c r="C32" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="155"/>
-      <c r="E32" s="154" t="s">
+      <c r="D32" s="222"/>
+      <c r="E32" s="221" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="173"/>
+      <c r="F32" s="242"/>
       <c r="G32" s="139" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="12" thickBot="1">
-      <c r="A33" s="203"/>
-      <c r="B33" s="204"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="206"/>
-      <c r="E33" s="205"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="204"/>
+      <c r="A33" s="150"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="243"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="244"/>
+      <c r="G33" s="151"/>
     </row>
     <row r="35" spans="1:7" ht="12" thickBot="1">
       <c r="A35" s="1" t="s">
@@ -8930,73 +9106,73 @@
       <c r="B36" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="168" t="s">
+      <c r="C36" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="169"/>
-      <c r="E36" s="168" t="s">
+      <c r="D36" s="236"/>
+      <c r="E36" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="170"/>
+      <c r="F36" s="237"/>
       <c r="G36" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="208">
+      <c r="A37" s="153">
         <v>1</v>
       </c>
-      <c r="B37" s="201" t="s">
+      <c r="B37" s="148" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="206" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="207"/>
+      <c r="E37" s="206" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" s="207"/>
+      <c r="G37" s="148" t="s">
         <v>130</v>
       </c>
-      <c r="C37" s="194" t="s">
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="152">
+        <v>2</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="208" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="195"/>
-      <c r="E37" s="194" t="s">
-        <v>131</v>
-      </c>
-      <c r="F37" s="195"/>
-      <c r="G37" s="201" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="207">
-        <v>2</v>
-      </c>
-      <c r="B38" s="46" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="199" t="s">
+      <c r="D38" s="209"/>
+      <c r="E38" s="208" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" s="209"/>
+      <c r="G38" s="46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="12" thickBot="1">
+      <c r="A39" s="147">
+        <v>3</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="210" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="200"/>
-      <c r="E38" s="199" t="s">
-        <v>134</v>
-      </c>
-      <c r="F38" s="200"/>
-      <c r="G38" s="46" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="12" thickBot="1">
-      <c r="A39" s="196">
-        <v>3</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C39" s="197" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="198"/>
-      <c r="E39" s="197" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" s="198"/>
+      <c r="D39" s="211"/>
+      <c r="E39" s="210" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="211"/>
       <c r="G39" s="45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -9050,10 +9226,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -9068,120 +9244,121 @@
     <col min="10" max="10" width="8.83203125" style="13"/>
     <col min="11" max="11" width="17.6640625" style="13" customWidth="1"/>
     <col min="12" max="13" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="17" style="13" customWidth="1"/>
-    <col min="17" max="17" width="15.5" style="13" customWidth="1"/>
-    <col min="18" max="16384" width="8.83203125" style="13"/>
+    <col min="14" max="14" width="11" style="13" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="17" style="13" customWidth="1"/>
+    <col min="18" max="18" width="15.5" style="13" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="12" thickBot="1">
+    <row r="1" spans="1:19" ht="12" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="13">
+    <row r="2" spans="1:19" ht="13">
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="146"/>
+      <c r="D2" s="213"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="145" t="s">
+      <c r="F2" s="212" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="149"/>
-    </row>
-    <row r="3" spans="1:18" ht="13">
+      <c r="G2" s="216"/>
+    </row>
+    <row r="3" spans="1:19" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="150">
+      <c r="F3" s="217">
         <v>42026</v>
       </c>
-      <c r="G3" s="151"/>
-    </row>
-    <row r="4" spans="1:18" ht="13">
+      <c r="G3" s="218"/>
+    </row>
+    <row r="4" spans="1:19" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="214" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="148"/>
+      <c r="D4" s="215"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="151"/>
-    </row>
-    <row r="5" spans="1:18" ht="13">
+      <c r="F4" s="214"/>
+      <c r="G4" s="218"/>
+    </row>
+    <row r="5" spans="1:19" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="147" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="148"/>
+      <c r="C5" s="214" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="215"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="151"/>
-    </row>
-    <row r="6" spans="1:18" ht="13">
+      <c r="F5" s="214"/>
+      <c r="G5" s="218"/>
+    </row>
+    <row r="6" spans="1:19" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="147" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="148"/>
+      <c r="C6" s="214" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" s="215"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="151"/>
-    </row>
-    <row r="7" spans="1:18" ht="13">
-      <c r="B7" s="156" t="s">
+      <c r="F6" s="214"/>
+      <c r="G6" s="218"/>
+    </row>
+    <row r="7" spans="1:19" ht="13">
+      <c r="B7" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="158"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="B9" s="162"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
-    </row>
-    <row r="10" spans="1:18" ht="12" thickBot="1">
-      <c r="B10" s="163"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="165"/>
-    </row>
-    <row r="12" spans="1:18" ht="12" thickBot="1">
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="225"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="B8" s="226"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="228"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="B9" s="229"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="228"/>
+    </row>
+    <row r="10" spans="1:19" ht="12" thickBot="1">
+      <c r="B10" s="230"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="231"/>
+      <c r="G10" s="232"/>
+    </row>
+    <row r="12" spans="1:19" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -9189,7 +9366,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" s="30" t="s">
         <v>0</v>
       </c>
@@ -9211,30 +9388,33 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="241" t="s">
+      <c r="I13" s="180" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="231" t="s">
+      <c r="J13" s="170" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="170" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" s="170" t="s">
         <v>139</v>
       </c>
-      <c r="K13" s="231" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" s="231" t="s">
+      <c r="M13" s="170" t="s">
         <v>141</v>
       </c>
-      <c r="M13" s="231" t="s">
-        <v>143</v>
-      </c>
-      <c r="N13" s="232" t="s">
-        <v>132</v>
-      </c>
-      <c r="O13" s="128"/>
+      <c r="N13" s="170" t="s">
+        <v>185</v>
+      </c>
+      <c r="O13" s="171" t="s">
+        <v>130</v>
+      </c>
       <c r="P13" s="128"/>
       <c r="Q13" s="128"/>
       <c r="R13" s="128"/>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" s="128"/>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="69">
         <v>1</v>
       </c>
@@ -9255,79 +9435,85 @@
         <v>50</v>
       </c>
       <c r="H14" s="87"/>
-      <c r="I14" s="233">
+      <c r="I14" s="172">
         <v>1</v>
       </c>
-      <c r="J14" s="234" t="s">
-        <v>171</v>
-      </c>
-      <c r="K14" s="235" t="s">
-        <v>172</v>
-      </c>
-      <c r="L14" s="252">
+      <c r="J14" s="173" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="174" t="s">
+        <v>168</v>
+      </c>
+      <c r="L14" s="191">
         <v>41922.465277777781</v>
       </c>
-      <c r="M14" s="250">
+      <c r="M14" s="189">
         <v>41927.465277777781</v>
       </c>
-      <c r="N14" s="221">
+      <c r="N14" s="181">
+        <v>41927.465277777781</v>
+      </c>
+      <c r="O14" s="163">
         <v>1</v>
       </c>
-      <c r="O14" s="127"/>
       <c r="P14" s="127"/>
       <c r="Q14" s="127"/>
-    </row>
-    <row r="15" spans="1:18" ht="12" thickBot="1">
+      <c r="R14" s="127"/>
+    </row>
+    <row r="15" spans="1:19" ht="12" thickBot="1">
       <c r="A15" s="59">
         <v>2</v>
       </c>
-      <c r="B15" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>139</v>
+      <c r="B15" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>182</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="201" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="67"/>
       <c r="G15" s="107"/>
       <c r="H15" s="87"/>
-      <c r="I15" s="236">
+      <c r="I15" s="175">
         <v>2</v>
       </c>
-      <c r="J15" s="237" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" s="238" t="s">
-        <v>173</v>
-      </c>
-      <c r="L15" s="249">
+      <c r="J15" s="176" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" s="177" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" s="188">
         <v>41922.46875</v>
       </c>
-      <c r="M15" s="251"/>
-      <c r="N15" s="222">
+      <c r="M15" s="190"/>
+      <c r="N15" s="182">
+        <v>41924.548611111109</v>
+      </c>
+      <c r="O15" s="164">
         <v>2</v>
       </c>
-      <c r="O15" s="127"/>
       <c r="P15" s="127"/>
       <c r="Q15" s="127"/>
-    </row>
-    <row r="16" spans="1:18" ht="14">
+      <c r="R15" s="127"/>
+    </row>
+    <row r="16" spans="1:19" ht="14">
       <c r="A16" s="69">
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
@@ -9335,29 +9521,29 @@
       <c r="F16" s="67"/>
       <c r="G16" s="107"/>
       <c r="H16" s="87"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="127"/>
+      <c r="O16" s="135"/>
       <c r="P16" s="127"/>
       <c r="Q16" s="127"/>
+      <c r="R16" s="127"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="59">
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>140</v>
+        <v>12</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>3</v>
       </c>
       <c r="F17" s="67"/>
-      <c r="G17" s="117"/>
+      <c r="G17" s="107"/>
       <c r="H17" s="87"/>
     </row>
     <row r="18" spans="1:8">
@@ -9365,35 +9551,35 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="66" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" s="67"/>
-      <c r="G18" s="107"/>
+      <c r="G18" s="117"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="59">
         <v>6</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="E19" s="66" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F19" s="67"/>
       <c r="G19" s="107"/>
@@ -9402,21 +9588,37 @@
       <c r="A20" s="69">
         <v>7</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="66"/>
+      <c r="B20" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>0</v>
+      </c>
       <c r="F20" s="67"/>
-      <c r="G20" s="106"/>
+      <c r="G20" s="107"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="59">
         <v>8</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="66"/>
+      <c r="B21" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F21" s="67"/>
       <c r="G21" s="106"/>
     </row>
@@ -9435,12 +9637,12 @@
       <c r="A23" s="70">
         <v>10</v>
       </c>
-      <c r="B23" s="186"/>
+      <c r="B23" s="141"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="189"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="144"/>
     </row>
     <row r="25" spans="1:8" ht="12" thickBot="1">
       <c r="A25" s="1" t="s">
@@ -9454,10 +9656,10 @@
       <c r="B26" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="152" t="s">
+      <c r="C26" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="153"/>
+      <c r="D26" s="220"/>
       <c r="E26" s="34" t="s">
         <v>33</v>
       </c>
@@ -9472,32 +9674,32 @@
       <c r="A27" s="14">
         <v>1</v>
       </c>
-      <c r="B27" s="193" t="s">
+      <c r="B27" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="166" t="s">
+      <c r="C27" s="233" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="167"/>
-      <c r="E27" s="193" t="s">
+      <c r="D27" s="234"/>
+      <c r="E27" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="193" t="s">
+      <c r="F27" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="202"/>
+      <c r="G27" s="149"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="57">
         <v>2</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="174" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="175"/>
+        <v>150</v>
+      </c>
+      <c r="C28" s="246" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="247"/>
       <c r="E28" s="44" t="s">
         <v>0</v>
       </c>
@@ -9511,8 +9713,8 @@
         <v>3</v>
       </c>
       <c r="B29" s="54"/>
-      <c r="C29" s="190"/>
-      <c r="D29" s="191"/>
+      <c r="C29" s="238"/>
+      <c r="D29" s="239"/>
       <c r="E29" s="58"/>
       <c r="F29" s="58"/>
       <c r="G29" s="55"/>
@@ -9529,34 +9731,34 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="168" t="s">
+      <c r="C32" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="169"/>
-      <c r="E32" s="168" t="s">
+      <c r="D32" s="236"/>
+      <c r="E32" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="170"/>
+      <c r="F32" s="237"/>
       <c r="G32" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="12" thickBot="1">
-      <c r="A33" s="203">
+      <c r="A33" s="150">
         <v>1</v>
       </c>
-      <c r="B33" s="204" t="s">
+      <c r="B33" s="151" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="243" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="205" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="206"/>
-      <c r="E33" s="205" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" s="206"/>
-      <c r="G33" s="204" t="s">
+      <c r="D33" s="244"/>
+      <c r="E33" s="243" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" s="244"/>
+      <c r="G33" s="151" t="s">
         <v>109</v>
       </c>
     </row>
@@ -9572,35 +9774,35 @@
       <c r="B36" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="168" t="s">
+      <c r="C36" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="169"/>
-      <c r="E36" s="168" t="s">
+      <c r="D36" s="236"/>
+      <c r="E36" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="F36" s="170"/>
+      <c r="F36" s="237"/>
       <c r="G36" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="12" thickBot="1">
-      <c r="A37" s="209">
+      <c r="A37" s="154">
         <v>1</v>
       </c>
-      <c r="B37" s="210" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="211" t="s">
+      <c r="B37" s="155" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" s="245" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="211"/>
-      <c r="E37" s="211" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" s="211"/>
-      <c r="G37" s="210" t="s">
-        <v>150</v>
+      <c r="D37" s="245"/>
+      <c r="E37" s="245" t="s">
+        <v>174</v>
+      </c>
+      <c r="F37" s="245"/>
+      <c r="G37" s="155" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -9649,138 +9851,138 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14:L15"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.6640625" style="18" customWidth="1"/>
     <col min="5" max="6" width="10.1640625" style="18" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="18" customWidth="1"/>
     <col min="8" max="8" width="9.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="8.83203125" style="13"/>
     <col min="11" max="12" width="11.33203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="13" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" style="13" customWidth="1"/>
-    <col min="16" max="17" width="17" style="13" customWidth="1"/>
-    <col min="18" max="18" width="15.5" style="13" customWidth="1"/>
-    <col min="19" max="16384" width="8.83203125" style="13"/>
+    <col min="13" max="14" width="12.5" style="13" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" style="13" customWidth="1"/>
+    <col min="17" max="18" width="17" style="13" customWidth="1"/>
+    <col min="19" max="19" width="15.5" style="13" customWidth="1"/>
+    <col min="20" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="12" thickBot="1">
+    <row r="1" spans="1:20" ht="12" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="13">
+    <row r="2" spans="1:20" ht="13">
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="146"/>
+      <c r="D2" s="213"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="145" t="s">
+      <c r="F2" s="212" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="149"/>
-    </row>
-    <row r="3" spans="1:19" ht="13">
+      <c r="G2" s="216"/>
+    </row>
+    <row r="3" spans="1:20" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="150">
+      <c r="F3" s="217">
         <v>42026</v>
       </c>
-      <c r="G3" s="151"/>
-    </row>
-    <row r="4" spans="1:19" ht="13">
+      <c r="G3" s="218"/>
+    </row>
+    <row r="4" spans="1:20" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="214" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="148"/>
+      <c r="D4" s="215"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="151"/>
-    </row>
-    <row r="5" spans="1:19" ht="13">
+      <c r="F4" s="214"/>
+      <c r="G4" s="218"/>
+    </row>
+    <row r="5" spans="1:20" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="147" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="148"/>
+      <c r="C5" s="214" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="215"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="151"/>
-    </row>
-    <row r="6" spans="1:19" ht="13">
+      <c r="F5" s="214"/>
+      <c r="G5" s="218"/>
+    </row>
+    <row r="6" spans="1:20" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="147" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="148"/>
+      <c r="C6" s="214" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6" s="215"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="151"/>
-    </row>
-    <row r="7" spans="1:19" ht="13">
-      <c r="B7" s="156" t="s">
+      <c r="F6" s="214"/>
+      <c r="G6" s="218"/>
+    </row>
+    <row r="7" spans="1:20" ht="13">
+      <c r="B7" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="158"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="B9" s="162"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
-    </row>
-    <row r="10" spans="1:19" ht="12" thickBot="1">
-      <c r="B10" s="163"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="165"/>
-    </row>
-    <row r="12" spans="1:19" ht="12" thickBot="1">
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="225"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="B8" s="226"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="228"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="B9" s="229"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="228"/>
+    </row>
+    <row r="10" spans="1:20" ht="12" thickBot="1">
+      <c r="B10" s="230"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="231"/>
+      <c r="G10" s="232"/>
+    </row>
+    <row r="12" spans="1:20" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -9788,7 +9990,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20">
       <c r="A13" s="30" t="s">
         <v>0</v>
       </c>
@@ -9810,31 +10012,34 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="241" t="s">
+      <c r="I13" s="180" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="240" t="s">
+      <c r="J13" s="179" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="179" t="s">
         <v>139</v>
       </c>
-      <c r="K13" s="240" t="s">
+      <c r="L13" s="179" t="s">
         <v>141</v>
       </c>
-      <c r="L13" s="240" t="s">
-        <v>143</v>
-      </c>
-      <c r="M13" s="240" t="s">
-        <v>150</v>
-      </c>
-      <c r="N13" s="220" t="s">
-        <v>132</v>
-      </c>
-      <c r="O13" s="128"/>
+      <c r="M13" s="179" t="s">
+        <v>177</v>
+      </c>
+      <c r="N13" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="O13" s="162" t="s">
+        <v>130</v>
+      </c>
       <c r="P13" s="128"/>
       <c r="Q13" s="128"/>
       <c r="R13" s="128"/>
       <c r="S13" s="128"/>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13" s="128"/>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="69">
         <v>1</v>
       </c>
@@ -9855,29 +10060,30 @@
         <v>50</v>
       </c>
       <c r="H14" s="87"/>
-      <c r="I14" s="245">
+      <c r="I14" s="184">
         <v>1</v>
       </c>
-      <c r="J14" s="244" t="s">
-        <v>174</v>
-      </c>
-      <c r="K14" s="248">
+      <c r="J14" s="183" t="s">
+        <v>170</v>
+      </c>
+      <c r="K14" s="187">
         <v>41922.465277777781</v>
       </c>
-      <c r="L14" s="242">
+      <c r="L14" s="181">
         <v>41927.465277777781</v>
       </c>
-      <c r="M14" s="246">
+      <c r="M14" s="185">
         <v>3</v>
       </c>
-      <c r="N14" s="254">
+      <c r="N14" s="199"/>
+      <c r="O14" s="193">
         <v>1</v>
       </c>
-      <c r="P14" s="127"/>
       <c r="Q14" s="127"/>
       <c r="R14" s="127"/>
-    </row>
-    <row r="15" spans="1:19" ht="12" thickBot="1">
+      <c r="S14" s="127"/>
+    </row>
+    <row r="15" spans="1:20" ht="12" thickBot="1">
       <c r="A15" s="59">
         <f>A14+1</f>
         <v>2</v>
@@ -9886,10 +10092,10 @@
         <v>12</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
@@ -9897,39 +10103,40 @@
       <c r="F15" s="67"/>
       <c r="G15" s="107"/>
       <c r="H15" s="87"/>
-      <c r="I15" s="236">
+      <c r="I15" s="175">
         <v>2</v>
       </c>
-      <c r="J15" s="237" t="s">
-        <v>170</v>
-      </c>
-      <c r="K15" s="249">
+      <c r="J15" s="176" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="188">
         <v>41922.46875</v>
       </c>
-      <c r="L15" s="243"/>
-      <c r="M15" s="247">
+      <c r="L15" s="182"/>
+      <c r="M15" s="186"/>
+      <c r="N15" s="200">
         <v>2</v>
       </c>
-      <c r="N15" s="239">
+      <c r="O15" s="178">
         <v>2</v>
       </c>
-      <c r="P15" s="127"/>
       <c r="Q15" s="127"/>
       <c r="R15" s="127"/>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="S15" s="127"/>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="59">
         <f t="shared" ref="A16:A23" si="0">A15+1</f>
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
@@ -9944,13 +10151,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>0</v>
@@ -9964,10 +10171,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="D18" s="65" t="s">
         <v>53</v>
@@ -9977,7 +10184,7 @@
       </c>
       <c r="F18" s="67"/>
       <c r="G18" s="107" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -9986,10 +10193,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="D19" s="65" t="s">
         <v>53</v>
@@ -9998,17 +10205,27 @@
         <v>3</v>
       </c>
       <c r="F19" s="67"/>
-      <c r="G19" s="106"/>
+      <c r="G19" s="106" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="59">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="66"/>
+      <c r="B20" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="66" t="s">
+        <v>3</v>
+      </c>
       <c r="F20" s="67"/>
       <c r="G20" s="106"/>
     </row>
@@ -10041,12 +10258,12 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B23" s="186"/>
+      <c r="B23" s="141"/>
       <c r="C23" s="68"/>
       <c r="D23" s="68"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="189"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="144"/>
     </row>
     <row r="25" spans="1:7" ht="12" thickBot="1">
       <c r="A25" s="1" t="s">
@@ -10060,10 +10277,10 @@
       <c r="B26" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="152" t="s">
+      <c r="C26" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="153"/>
+      <c r="D26" s="220"/>
       <c r="E26" s="34" t="s">
         <v>33</v>
       </c>
@@ -10075,35 +10292,35 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="13">
-      <c r="A27" s="212">
+      <c r="A27" s="156">
         <v>1</v>
       </c>
-      <c r="B27" s="193" t="s">
+      <c r="B27" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="166" t="s">
+      <c r="C27" s="233" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="167"/>
-      <c r="E27" s="193" t="s">
+      <c r="D27" s="234"/>
+      <c r="E27" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="193" t="s">
+      <c r="F27" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="202"/>
+      <c r="G27" s="149"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="15">
         <v>2</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="174" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="175"/>
+      <c r="C28" s="246" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="247"/>
       <c r="E28" s="44" t="s">
         <v>0</v>
       </c>
@@ -10117,12 +10334,12 @@
         <v>3</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="213" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="213"/>
+        <v>150</v>
+      </c>
+      <c r="C29" s="248" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="248"/>
       <c r="E29" s="45" t="s">
         <v>0</v>
       </c>
@@ -10143,93 +10360,112 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="168" t="s">
+      <c r="C32" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="169"/>
-      <c r="E32" s="168" t="s">
+      <c r="D32" s="236"/>
+      <c r="E32" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="F32" s="170"/>
+      <c r="F32" s="237"/>
       <c r="G32" s="38" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="208">
+      <c r="A33" s="153">
         <v>1</v>
       </c>
-      <c r="B33" s="201" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" s="194" t="s">
-        <v>132</v>
-      </c>
-      <c r="D33" s="195"/>
-      <c r="E33" s="194" t="s">
-        <v>115</v>
-      </c>
-      <c r="F33" s="195"/>
-      <c r="G33" s="216" t="s">
+      <c r="B33" s="148" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="207"/>
+      <c r="E33" s="206" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" s="207"/>
+      <c r="G33" s="159" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="12" thickBot="1">
-      <c r="A34" s="196">
+      <c r="A34" s="147">
         <v>2</v>
       </c>
-      <c r="B34" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="197" t="s">
-        <v>150</v>
-      </c>
-      <c r="D34" s="198"/>
-      <c r="E34" s="197" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="198"/>
-      <c r="G34" s="217" t="s">
+      <c r="B34" s="194" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="210" t="s">
+        <v>177</v>
+      </c>
+      <c r="D34" s="211"/>
+      <c r="E34" s="210" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" s="211"/>
+      <c r="G34" s="160" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12" thickBot="1">
-      <c r="A36" s="1" t="s">
+    <row r="35" spans="1:7" ht="12" thickBot="1">
+      <c r="A35" s="147">
+        <v>3</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="210" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="211"/>
+      <c r="E35" s="210" t="s">
+        <v>174</v>
+      </c>
+      <c r="F35" s="211"/>
+      <c r="G35" s="160" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12" thickBot="1">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14" thickBot="1">
-      <c r="A37" s="36" t="s">
+    <row r="38" spans="1:7" ht="14" thickBot="1">
+      <c r="A38" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B38" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="168" t="s">
+      <c r="C38" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="169"/>
-      <c r="E37" s="168" t="s">
+      <c r="D38" s="236"/>
+      <c r="E38" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="170"/>
-      <c r="G37" s="38" t="s">
+      <c r="F38" s="237"/>
+      <c r="G38" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12" thickBot="1">
-      <c r="A38" s="203"/>
-      <c r="B38" s="204"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="206"/>
-      <c r="E38" s="205"/>
-      <c r="F38" s="206"/>
-      <c r="G38" s="204"/>
+    <row r="39" spans="1:7" ht="12" thickBot="1">
+      <c r="A39" s="150"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="243"/>
+      <c r="D39" s="244"/>
+      <c r="E39" s="243"/>
+      <c r="F39" s="244"/>
+      <c r="G39" s="151"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:F38"/>
+  <mergeCells count="28">
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:F39"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="C3:D3"/>
@@ -10248,11 +10484,13 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E38:F38"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="E34:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10276,8 +10514,8 @@
   </sheetPr>
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:L15"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -10307,103 +10545,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="212" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="146"/>
+      <c r="D2" s="213"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="145" t="s">
+      <c r="F2" s="212" t="s">
         <v>114</v>
       </c>
-      <c r="G2" s="149"/>
+      <c r="G2" s="216"/>
     </row>
     <row r="3" spans="1:18" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="150">
+      <c r="F3" s="217">
         <v>42026</v>
       </c>
-      <c r="G3" s="151"/>
+      <c r="G3" s="218"/>
     </row>
     <row r="4" spans="1:18" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="214" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="148"/>
+      <c r="D4" s="215"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="151"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="218"/>
     </row>
     <row r="5" spans="1:18" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="147" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="148"/>
+      <c r="C5" s="214" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="215"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="151"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="218"/>
     </row>
     <row r="6" spans="1:18" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="147" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="148"/>
+      <c r="C6" s="214" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="215"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="151"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="218"/>
     </row>
     <row r="7" spans="1:18" ht="13">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="158"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="225"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
+      <c r="B8" s="226"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="228"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="B9" s="162"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="228"/>
     </row>
     <row r="10" spans="1:18" ht="12" thickBot="1">
-      <c r="B10" s="163"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="165"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="231"/>
+      <c r="G10" s="232"/>
     </row>
     <row r="12" spans="1:18" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -10435,20 +10673,20 @@
       <c r="G13" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="241" t="s">
+      <c r="I13" s="180" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="240" t="s">
-        <v>141</v>
-      </c>
-      <c r="K13" s="240" t="s">
-        <v>157</v>
-      </c>
-      <c r="L13" s="240" t="s">
-        <v>159</v>
-      </c>
-      <c r="M13" s="220" t="s">
-        <v>132</v>
+      <c r="J13" s="179" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" s="179" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="179" t="s">
+        <v>155</v>
+      </c>
+      <c r="M13" s="162" t="s">
+        <v>130</v>
       </c>
       <c r="N13" s="128"/>
       <c r="O13" s="128"/>
@@ -10477,19 +10715,19 @@
         <v>50</v>
       </c>
       <c r="H14" s="87"/>
-      <c r="I14" s="233">
+      <c r="I14" s="172">
         <v>1</v>
       </c>
-      <c r="J14" s="253">
+      <c r="J14" s="192">
         <v>41922.465277777781</v>
       </c>
-      <c r="K14" s="253">
+      <c r="K14" s="192">
         <v>41927.465277777781</v>
       </c>
-      <c r="L14" s="253" t="s">
+      <c r="L14" s="192" t="s">
         <v>107</v>
       </c>
-      <c r="M14" s="254">
+      <c r="M14" s="193">
         <v>1</v>
       </c>
       <c r="O14" s="127"/>
@@ -10502,13 +10740,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D15" s="65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>3</v>
@@ -10518,19 +10756,19 @@
         <v>104</v>
       </c>
       <c r="H15" s="87"/>
-      <c r="I15" s="236">
+      <c r="I15" s="175">
         <v>2</v>
       </c>
-      <c r="J15" s="251">
+      <c r="J15" s="190">
         <v>41922.46875</v>
       </c>
-      <c r="K15" s="251">
+      <c r="K15" s="190">
         <v>41927.46875</v>
       </c>
-      <c r="L15" s="251" t="s">
+      <c r="L15" s="190" t="s">
         <v>108</v>
       </c>
-      <c r="M15" s="239">
+      <c r="M15" s="178">
         <v>2</v>
       </c>
       <c r="O15" s="127"/>
@@ -10543,13 +10781,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
@@ -10564,13 +10802,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E17" s="66" t="s">
         <v>3</v>
@@ -10584,10 +10822,10 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D18" s="65" t="s">
         <v>53</v>
@@ -10682,10 +10920,10 @@
       <c r="B27" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="152" t="s">
+      <c r="C27" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="153"/>
+      <c r="D27" s="220"/>
       <c r="E27" s="34" t="s">
         <v>33</v>
       </c>
@@ -10697,35 +10935,35 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="13">
-      <c r="A28" s="212">
+      <c r="A28" s="156">
         <v>1</v>
       </c>
-      <c r="B28" s="193" t="s">
+      <c r="B28" s="146" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="166" t="s">
+      <c r="C28" s="233" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="167"/>
-      <c r="E28" s="193" t="s">
+      <c r="D28" s="234"/>
+      <c r="E28" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="193" t="s">
+      <c r="F28" s="146" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="202"/>
+      <c r="G28" s="149"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="15">
         <v>2</v>
       </c>
       <c r="B29" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="218" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="218"/>
+        <v>150</v>
+      </c>
+      <c r="C29" s="249" t="s">
+        <v>130</v>
+      </c>
+      <c r="D29" s="249"/>
       <c r="E29" s="44" t="s">
         <v>0</v>
       </c>
@@ -10739,8 +10977,8 @@
         <v>3</v>
       </c>
       <c r="B30" s="54"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="191"/>
+      <c r="C30" s="238"/>
+      <c r="D30" s="239"/>
       <c r="E30" s="58"/>
       <c r="F30" s="58"/>
       <c r="G30" s="55"/>
@@ -10757,34 +10995,34 @@
       <c r="B33" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="168" t="s">
+      <c r="C33" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="169"/>
-      <c r="E33" s="168" t="s">
+      <c r="D33" s="236"/>
+      <c r="E33" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="F33" s="170"/>
+      <c r="F33" s="237"/>
       <c r="G33" s="137" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="12" thickBot="1">
-      <c r="A34" s="214">
+      <c r="A34" s="157">
         <v>1</v>
       </c>
-      <c r="B34" s="215" t="s">
-        <v>133</v>
-      </c>
-      <c r="C34" s="205" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="206"/>
-      <c r="E34" s="205" t="s">
-        <v>115</v>
-      </c>
-      <c r="F34" s="206"/>
-      <c r="G34" s="219" t="s">
+      <c r="B34" s="158" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="243" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="244"/>
+      <c r="E34" s="243" t="s">
+        <v>172</v>
+      </c>
+      <c r="F34" s="244"/>
+      <c r="G34" s="161" t="s">
         <v>109</v>
       </c>
     </row>
@@ -10800,26 +11038,26 @@
       <c r="B37" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="168" t="s">
+      <c r="C37" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="169"/>
-      <c r="E37" s="168" t="s">
+      <c r="D37" s="236"/>
+      <c r="E37" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="170"/>
+      <c r="F37" s="237"/>
       <c r="G37" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="12" thickBot="1">
-      <c r="A38" s="203"/>
-      <c r="B38" s="204"/>
-      <c r="C38" s="205"/>
-      <c r="D38" s="206"/>
-      <c r="E38" s="205"/>
-      <c r="F38" s="206"/>
-      <c r="G38" s="204"/>
+      <c r="A38" s="150"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="243"/>
+      <c r="D38" s="244"/>
+      <c r="E38" s="243"/>
+      <c r="F38" s="244"/>
+      <c r="G38" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -10893,103 +11131,103 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="146"/>
+      <c r="D2" s="213"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="145" t="s">
+      <c r="F2" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="149"/>
+      <c r="G2" s="216"/>
     </row>
     <row r="3" spans="1:11" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="147" t="s">
+      <c r="F3" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="151"/>
+      <c r="G3" s="218"/>
     </row>
     <row r="4" spans="1:11" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="148"/>
+      <c r="D4" s="215"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="151"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="218"/>
     </row>
     <row r="5" spans="1:11" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="214" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="148"/>
+      <c r="D5" s="215"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="151"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="218"/>
     </row>
     <row r="6" spans="1:11" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="214" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="148"/>
+      <c r="D6" s="215"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="151"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="218"/>
     </row>
     <row r="7" spans="1:11" ht="13">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="158"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="225"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="B8" s="159"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
+      <c r="B8" s="226"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="228"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="B9" s="162"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="228"/>
     </row>
     <row r="10" spans="1:11" ht="12" thickBot="1">
-      <c r="B10" s="163"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="165"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="231"/>
+      <c r="G10" s="232"/>
     </row>
     <row r="12" spans="1:11" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -11211,10 +11449,10 @@
       <c r="B24" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="152" t="s">
+      <c r="C24" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="153"/>
+      <c r="D24" s="220"/>
       <c r="E24" s="34" t="s">
         <v>33</v>
       </c>
@@ -11232,10 +11470,10 @@
       <c r="B25" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="176" t="s">
+      <c r="C25" s="254" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="177"/>
+      <c r="D25" s="255"/>
       <c r="E25" s="46" t="s">
         <v>3</v>
       </c>
@@ -11249,10 +11487,10 @@
         <v>2</v>
       </c>
       <c r="B26" s="54"/>
-      <c r="C26" s="180" t="s">
+      <c r="C26" s="252" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="181"/>
+      <c r="D26" s="253"/>
       <c r="E26" s="58"/>
       <c r="F26" s="58" t="s">
         <v>3</v>
@@ -11271,14 +11509,14 @@
       <c r="B29" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="168" t="s">
+      <c r="C29" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="169"/>
-      <c r="E29" s="168" t="s">
+      <c r="D29" s="236"/>
+      <c r="E29" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="170"/>
+      <c r="F29" s="237"/>
       <c r="G29" s="38" t="s">
         <v>38</v>
       </c>
@@ -11295,14 +11533,14 @@
       <c r="B32" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="168" t="s">
+      <c r="C32" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="169"/>
-      <c r="E32" s="168" t="s">
+      <c r="D32" s="236"/>
+      <c r="E32" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="170"/>
+      <c r="F32" s="237"/>
       <c r="G32" s="38" t="s">
         <v>39</v>
       </c>
@@ -11312,14 +11550,14 @@
         <v>1</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="178" t="s">
+      <c r="C33" s="250" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="179"/>
-      <c r="E33" s="180" t="s">
+      <c r="D33" s="251"/>
+      <c r="E33" s="252" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="181"/>
+      <c r="F33" s="253"/>
       <c r="G33" s="28" t="s">
         <v>49</v>
       </c>
@@ -11394,105 +11632,105 @@
       <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="146"/>
+      <c r="D2" s="213"/>
       <c r="E2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="145" t="s">
+      <c r="F2" s="212" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="149"/>
+      <c r="G2" s="216"/>
     </row>
     <row r="3" spans="1:7" ht="13">
       <c r="B3" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="148"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="215"/>
       <c r="E3" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="147" t="s">
+      <c r="F3" s="214" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="151"/>
+      <c r="G3" s="218"/>
     </row>
     <row r="4" spans="1:7" ht="13">
       <c r="B4" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="148"/>
+      <c r="D4" s="215"/>
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="151"/>
+      <c r="F4" s="214"/>
+      <c r="G4" s="218"/>
     </row>
     <row r="5" spans="1:7" ht="13">
       <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="214" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="148"/>
+      <c r="D5" s="215"/>
       <c r="E5" s="42"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="151"/>
+      <c r="F5" s="214"/>
+      <c r="G5" s="218"/>
     </row>
     <row r="6" spans="1:7" ht="13">
       <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="214" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="148"/>
+      <c r="D6" s="215"/>
       <c r="E6" s="43"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="151"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="218"/>
     </row>
     <row r="7" spans="1:7" ht="13">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="223" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="158"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="225"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="226" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="160"/>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="161"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="228"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="162"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="161"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="228"/>
     </row>
     <row r="10" spans="1:7" ht="12" thickBot="1">
-      <c r="B10" s="163"/>
-      <c r="C10" s="164"/>
-      <c r="D10" s="164"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="165"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="231"/>
+      <c r="D10" s="231"/>
+      <c r="E10" s="231"/>
+      <c r="F10" s="231"/>
+      <c r="G10" s="232"/>
     </row>
     <row r="12" spans="1:7" ht="12" thickBot="1">
       <c r="A12" s="1" t="s">
@@ -11597,10 +11835,10 @@
       <c r="B19" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="152" t="s">
+      <c r="C19" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="153"/>
+      <c r="D19" s="220"/>
       <c r="E19" s="34" t="s">
         <v>33</v>
       </c>
@@ -11618,10 +11856,10 @@
       <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="176" t="s">
+      <c r="C20" s="254" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="177"/>
+      <c r="D20" s="255"/>
       <c r="E20" s="46" t="s">
         <v>3</v>
       </c>
@@ -11635,10 +11873,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="26"/>
-      <c r="C21" s="178" t="s">
+      <c r="C21" s="250" t="s">
         <v>94</v>
       </c>
-      <c r="D21" s="179"/>
+      <c r="D21" s="251"/>
       <c r="E21" s="45"/>
       <c r="F21" s="45" t="s">
         <v>3</v>
@@ -11657,14 +11895,14 @@
       <c r="B24" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="168" t="s">
+      <c r="C24" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="169"/>
-      <c r="E24" s="168" t="s">
+      <c r="D24" s="236"/>
+      <c r="E24" s="235" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="170"/>
+      <c r="F24" s="237"/>
       <c r="G24" s="38" t="s">
         <v>38</v>
       </c>
@@ -11681,14 +11919,14 @@
       <c r="B27" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="168" t="s">
+      <c r="C27" s="235" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="169"/>
-      <c r="E27" s="168" t="s">
+      <c r="D27" s="236"/>
+      <c r="E27" s="235" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="170"/>
+      <c r="F27" s="237"/>
       <c r="G27" s="38" t="s">
         <v>39</v>
       </c>
@@ -11698,10 +11936,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="26"/>
-      <c r="C28" s="178"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="181"/>
+      <c r="C28" s="250"/>
+      <c r="D28" s="251"/>
+      <c r="E28" s="252"/>
+      <c r="F28" s="253"/>
       <c r="G28" s="28"/>
     </row>
   </sheetData>

--- a/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TRILE.xlsx
+++ b/doc/backend/db/TRN-MiniBlog_DatabaseDesign_TRILE.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="34560" windowHeight="17020" tabRatio="818" activeTab="3"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="34560" windowHeight="17020" tabRatio="818"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="11" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="192">
   <si>
     <t>No</t>
   </si>
@@ -678,9 +678,6 @@
     <t>post_id</t>
   </si>
   <si>
-    <t>CommenttID</t>
-  </si>
-  <si>
     <t>comment_id</t>
   </si>
   <si>
@@ -709,6 +706,18 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>PCommenttID</t>
+  </si>
+  <si>
+    <t>pcomment_id</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>Change name of field comment_id -&gt; pcomment_id</t>
   </si>
 </sst>
 </file>
@@ -2005,7 +2014,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="532">
+  <cellStyleXfs count="533">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2025,6 +2034,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4338,7 +4350,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="532">
+  <cellStyles count="533">
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
@@ -4863,6 +4875,7 @@
     <cellStyle name="Followed Hyperlink" xfId="529" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="531" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ハイパーリンク 2" xfId="4"/>
@@ -5443,7 +5456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O13" sqref="O13:AK14"/>
     </sheetView>
   </sheetViews>
@@ -8016,7 +8029,7 @@
   <dimension ref="B1:F34"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -8066,10 +8079,18 @@
       <c r="F3" s="96"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="97"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99"/>
+      <c r="B4" s="97">
+        <v>42062</v>
+      </c>
+      <c r="C4" s="115" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>191</v>
+      </c>
       <c r="F4" s="100"/>
     </row>
     <row r="5" spans="2:6">
@@ -8585,7 +8606,7 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -8930,7 +8951,7 @@
         <v>126</v>
       </c>
       <c r="D19" s="129" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E19" s="66" t="s">
         <v>3</v>
@@ -9404,7 +9425,7 @@
         <v>141</v>
       </c>
       <c r="N13" s="170" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O13" s="171" t="s">
         <v>130</v>
@@ -9465,13 +9486,13 @@
         <v>2</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="D15" s="65" t="s">
         <v>182</v>
-      </c>
-      <c r="D15" s="65" t="s">
-        <v>183</v>
       </c>
       <c r="E15" s="201" t="s">
         <v>3</v>
@@ -9513,7 +9534,7 @@
         <v>143</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16" s="66" t="s">
         <v>3</v>
@@ -9589,10 +9610,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="65" t="s">
         <v>184</v>
-      </c>
-      <c r="C20" s="65" t="s">
-        <v>185</v>
       </c>
       <c r="D20" s="65" t="s">
         <v>127</v>
@@ -9854,7 +9875,7 @@
   <dimension ref="A1:T39"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -9921,7 +9942,9 @@
       <c r="E4" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="214"/>
+      <c r="F4" s="217">
+        <v>42062</v>
+      </c>
       <c r="G4" s="218"/>
     </row>
     <row r="5" spans="1:20" ht="13">
@@ -10028,7 +10051,7 @@
         <v>177</v>
       </c>
       <c r="N13" s="198" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O13" s="162" t="s">
         <v>130</v>
@@ -10193,10 +10216,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D19" s="65" t="s">
         <v>53</v>
@@ -10206,7 +10229,7 @@
       </c>
       <c r="F19" s="67"/>
       <c r="G19" s="106" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -10384,7 +10407,7 @@
       </c>
       <c r="D33" s="207"/>
       <c r="E33" s="206" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F33" s="207"/>
       <c r="G33" s="159" t="s">
@@ -10415,10 +10438,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35" s="210" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D35" s="211"/>
       <c r="E35" s="210" t="s">
